--- a/automatisation_achats/data/achat/achat_CNRS_2024.xlsx
+++ b/automatisation_achats/data/achat/achat_CNRS_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emollier\Dropbox\ob7\Marbec Green\purchase_script\data\achat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emollier\Dropbox\phd\git\marbec-green\automatisation_achats\data\achat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{143800BA-FDBB-44E9-A57D-F331D8488E1F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C0B7F3-6254-4EDE-9A1E-34B5D6B6BE5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="8210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cartographie des achats par cod" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1379" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="464">
   <si>
     <t>Libellé NACRES</t>
   </si>
@@ -1427,9 +1427,6 @@
   </si>
   <si>
     <t>Unité de logistique internationale - services et soutien aux expérien ces UAR2966 - ULISSE</t>
-  </si>
-  <si>
-    <t>CMP_1-963</t>
   </si>
   <si>
     <t>code</t>
@@ -2191,15 +2188,6 @@
     <xf numFmtId="164" fontId="21" fillId="33" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
@@ -2216,6 +2204,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2244,9 +2244,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2619,8 +2616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F462"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F3"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="A462" sqref="A462:XFD462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -2634,46 +2631,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>464</v>
-      </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="28.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2685,11 +2682,11 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2701,11 +2698,11 @@
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2717,11 +2714,11 @@
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="3" t="s">
         <v>7</v>
       </c>
@@ -2733,11 +2730,11 @@
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="10"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
       <c r="E8" s="1" t="s">
         <v>10</v>
       </c>
@@ -2749,11 +2746,11 @@
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="3" t="s">
         <v>7</v>
       </c>
@@ -2765,11 +2762,11 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2781,11 +2778,11 @@
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="10"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
       <c r="E11" s="1" t="s">
         <v>14</v>
       </c>
@@ -2797,11 +2794,11 @@
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="1" t="s">
         <v>15</v>
       </c>
@@ -2813,11 +2810,11 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
@@ -2829,11 +2826,11 @@
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
       <c r="E14" s="1" t="s">
         <v>17</v>
       </c>
@@ -2845,11 +2842,11 @@
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
       <c r="E15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2861,11 +2858,11 @@
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
@@ -2877,11 +2874,11 @@
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
@@ -2893,11 +2890,11 @@
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="10"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="1" t="s">
         <v>5</v>
       </c>
@@ -2909,11 +2906,11 @@
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
       <c r="E19" s="1" t="s">
         <v>22</v>
       </c>
@@ -2925,11 +2922,11 @@
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="10"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="1" t="s">
         <v>23</v>
       </c>
@@ -2941,11 +2938,11 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="1" t="s">
         <v>24</v>
       </c>
@@ -2957,11 +2954,11 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="7"/>
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
@@ -2973,11 +2970,11 @@
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="1" t="s">
         <v>26</v>
       </c>
@@ -2989,11 +2986,11 @@
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="7"/>
       <c r="E24" s="1" t="s">
         <v>27</v>
       </c>
@@ -3005,11 +3002,11 @@
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="7"/>
       <c r="E25" s="1" t="s">
         <v>28</v>
       </c>
@@ -3021,11 +3018,11 @@
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="7"/>
       <c r="E26" s="1" t="s">
         <v>29</v>
       </c>
@@ -3037,11 +3034,11 @@
       <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="7"/>
       <c r="E27" s="1" t="s">
         <v>30</v>
       </c>
@@ -3053,11 +3050,11 @@
       <c r="A28" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="1" t="s">
         <v>31</v>
       </c>
@@ -3069,11 +3066,11 @@
       <c r="A29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="13"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="3" t="s">
         <v>7</v>
       </c>
@@ -3085,11 +3082,11 @@
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="1" t="s">
         <v>34</v>
       </c>
@@ -3101,11 +3098,11 @@
       <c r="A31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="10"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="1" t="s">
         <v>10</v>
       </c>
@@ -3117,11 +3114,11 @@
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="13"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3" t="s">
         <v>7</v>
       </c>
@@ -3133,11 +3130,11 @@
       <c r="A33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="1" t="s">
         <v>10</v>
       </c>
@@ -3149,11 +3146,11 @@
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="13"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="3" t="s">
         <v>7</v>
       </c>
@@ -3165,11 +3162,11 @@
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="1" t="s">
         <v>10</v>
       </c>
@@ -3181,11 +3178,11 @@
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="13"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="3" t="s">
         <v>7</v>
       </c>
@@ -3197,11 +3194,11 @@
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="10"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
       <c r="E37" s="1" t="s">
         <v>41</v>
       </c>
@@ -3213,11 +3210,11 @@
       <c r="A38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="10"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
       <c r="E38" s="1" t="s">
         <v>42</v>
       </c>
@@ -3229,11 +3226,11 @@
       <c r="A39" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="3" t="s">
         <v>7</v>
       </c>
@@ -3245,11 +3242,11 @@
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="1" t="s">
         <v>45</v>
       </c>
@@ -3261,11 +3258,11 @@
       <c r="A41" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="10"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
       <c r="E41" s="1" t="s">
         <v>46</v>
       </c>
@@ -3277,11 +3274,11 @@
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="13"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="3" t="s">
         <v>7</v>
       </c>
@@ -3293,11 +3290,11 @@
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="10"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="1" t="s">
         <v>49</v>
       </c>
@@ -3309,11 +3306,11 @@
       <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="12"/>
-      <c r="D44" s="13"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="3" t="s">
         <v>7</v>
       </c>
@@ -3325,11 +3322,11 @@
       <c r="A45" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="9"/>
-      <c r="D45" s="10"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="1" t="s">
         <v>49</v>
       </c>
@@ -3341,11 +3338,11 @@
       <c r="A46" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="13"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
       <c r="E46" s="3" t="s">
         <v>7</v>
       </c>
@@ -3357,11 +3354,11 @@
       <c r="A47" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="10"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="1" t="s">
         <v>54</v>
       </c>
@@ -3373,11 +3370,11 @@
       <c r="A48" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="13"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="10"/>
       <c r="E48" s="3" t="s">
         <v>7</v>
       </c>
@@ -3389,11 +3386,11 @@
       <c r="A49" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="9"/>
-      <c r="D49" s="10"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="1" t="s">
         <v>5</v>
       </c>
@@ -3405,11 +3402,11 @@
       <c r="A50" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="1" t="s">
         <v>57</v>
       </c>
@@ -3421,11 +3418,11 @@
       <c r="A51" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="1" t="s">
         <v>58</v>
       </c>
@@ -3437,11 +3434,11 @@
       <c r="A52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="13"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="10"/>
       <c r="E52" s="3" t="s">
         <v>7</v>
       </c>
@@ -3453,11 +3450,11 @@
       <c r="A53" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
@@ -3469,11 +3466,11 @@
       <c r="A54" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="13"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="10"/>
       <c r="E54" s="3" t="s">
         <v>7</v>
       </c>
@@ -3485,11 +3482,11 @@
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="9"/>
-      <c r="D55" s="10"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
       <c r="E55" s="1" t="s">
         <v>5</v>
       </c>
@@ -3501,11 +3498,11 @@
       <c r="A56" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="9"/>
-      <c r="D56" s="10"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
       <c r="E56" s="1" t="s">
         <v>63</v>
       </c>
@@ -3517,11 +3514,11 @@
       <c r="A57" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="13"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="10"/>
       <c r="E57" s="3" t="s">
         <v>7</v>
       </c>
@@ -3533,11 +3530,11 @@
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="9"/>
-      <c r="D58" s="10"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="1" t="s">
         <v>66</v>
       </c>
@@ -3549,11 +3546,11 @@
       <c r="A59" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="11" t="s">
+      <c r="B59" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="12"/>
-      <c r="D59" s="13"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="3" t="s">
         <v>7</v>
       </c>
@@ -3565,11 +3562,11 @@
       <c r="A60" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="1" t="s">
         <v>69</v>
       </c>
@@ -3581,11 +3578,11 @@
       <c r="A61" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="12"/>
-      <c r="D61" s="13"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="10"/>
       <c r="E61" s="3" t="s">
         <v>7</v>
       </c>
@@ -3597,11 +3594,11 @@
       <c r="A62" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C62" s="9"/>
-      <c r="D62" s="10"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="7"/>
       <c r="E62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3613,11 +3610,11 @@
       <c r="A63" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C63" s="9"/>
-      <c r="D63" s="10"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="7"/>
       <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
@@ -3629,11 +3626,11 @@
       <c r="A64" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="12"/>
-      <c r="D64" s="13"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
       <c r="E64" s="3" t="s">
         <v>7</v>
       </c>
@@ -3645,11 +3642,11 @@
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C65" s="9"/>
-      <c r="D65" s="10"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="7"/>
       <c r="E65" s="1" t="s">
         <v>41</v>
       </c>
@@ -3661,11 +3658,11 @@
       <c r="A66" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C66" s="12"/>
-      <c r="D66" s="13"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="10"/>
       <c r="E66" s="3" t="s">
         <v>7</v>
       </c>
@@ -3677,11 +3674,11 @@
       <c r="A67" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="9"/>
-      <c r="D67" s="10"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="7"/>
       <c r="E67" s="1" t="s">
         <v>77</v>
       </c>
@@ -3693,11 +3690,11 @@
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C68" s="9"/>
-      <c r="D68" s="10"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="7"/>
       <c r="E68" s="1" t="s">
         <v>78</v>
       </c>
@@ -3709,11 +3706,11 @@
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="9"/>
-      <c r="D69" s="10"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
       <c r="E69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3725,11 +3722,11 @@
       <c r="A70" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="13"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
       <c r="E70" s="3" t="s">
         <v>7</v>
       </c>
@@ -3741,11 +3738,11 @@
       <c r="A71" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="9"/>
-      <c r="D71" s="10"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
       <c r="E71" s="1" t="s">
         <v>5</v>
       </c>
@@ -3757,11 +3754,11 @@
       <c r="A72" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="9"/>
-      <c r="D72" s="10"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="1" t="s">
         <v>82</v>
       </c>
@@ -3773,11 +3770,11 @@
       <c r="A73" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="11" t="s">
+      <c r="B73" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="13"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="3" t="s">
         <v>7</v>
       </c>
@@ -3789,11 +3786,11 @@
       <c r="A74" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="10"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="7"/>
       <c r="E74" s="1" t="s">
         <v>85</v>
       </c>
@@ -3805,11 +3802,11 @@
       <c r="A75" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B75" s="11" t="s">
+      <c r="B75" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="12"/>
-      <c r="D75" s="13"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="10"/>
       <c r="E75" s="3" t="s">
         <v>7</v>
       </c>
@@ -3821,11 +3818,11 @@
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="10"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="7"/>
       <c r="E76" s="1" t="s">
         <v>88</v>
       </c>
@@ -3837,11 +3834,11 @@
       <c r="A77" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="10"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="7"/>
       <c r="E77" s="1" t="s">
         <v>89</v>
       </c>
@@ -3853,11 +3850,11 @@
       <c r="A78" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="12"/>
-      <c r="D78" s="13"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="10"/>
       <c r="E78" s="3" t="s">
         <v>7</v>
       </c>
@@ -3869,11 +3866,11 @@
       <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="10"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="7"/>
       <c r="E79" s="1" t="s">
         <v>92</v>
       </c>
@@ -3885,11 +3882,11 @@
       <c r="A80" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C80" s="12"/>
-      <c r="D80" s="13"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="10"/>
       <c r="E80" s="3" t="s">
         <v>7</v>
       </c>
@@ -3901,11 +3898,11 @@
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="10"/>
+      <c r="C81" s="6"/>
+      <c r="D81" s="7"/>
       <c r="E81" s="1" t="s">
         <v>5</v>
       </c>
@@ -3917,11 +3914,11 @@
       <c r="A82" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C82" s="9"/>
-      <c r="D82" s="10"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="7"/>
       <c r="E82" s="1" t="s">
         <v>95</v>
       </c>
@@ -3933,11 +3930,11 @@
       <c r="A83" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C83" s="12"/>
-      <c r="D83" s="13"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="10"/>
       <c r="E83" s="3" t="s">
         <v>7</v>
       </c>
@@ -3949,11 +3946,11 @@
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C84" s="9"/>
-      <c r="D84" s="10"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="7"/>
       <c r="E84" s="1" t="s">
         <v>98</v>
       </c>
@@ -3965,11 +3962,11 @@
       <c r="A85" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C85" s="12"/>
-      <c r="D85" s="13"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="10"/>
       <c r="E85" s="3" t="s">
         <v>7</v>
       </c>
@@ -3981,11 +3978,11 @@
       <c r="A86" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="10"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="7"/>
       <c r="E86" s="1" t="s">
         <v>101</v>
       </c>
@@ -3997,11 +3994,11 @@
       <c r="A87" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B87" s="11" t="s">
+      <c r="B87" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C87" s="12"/>
-      <c r="D87" s="13"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="3" t="s">
         <v>7</v>
       </c>
@@ -4013,11 +4010,11 @@
       <c r="A88" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C88" s="9"/>
-      <c r="D88" s="10"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="7"/>
       <c r="E88" s="1" t="s">
         <v>104</v>
       </c>
@@ -4029,11 +4026,11 @@
       <c r="A89" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B89" s="11" t="s">
+      <c r="B89" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="13"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="3" t="s">
         <v>7</v>
       </c>
@@ -4045,11 +4042,11 @@
       <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C90" s="9"/>
-      <c r="D90" s="10"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="7"/>
       <c r="E90" s="1" t="s">
         <v>5</v>
       </c>
@@ -4061,11 +4058,11 @@
       <c r="A91" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B91" s="8" t="s">
+      <c r="B91" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C91" s="9"/>
-      <c r="D91" s="10"/>
+      <c r="C91" s="6"/>
+      <c r="D91" s="7"/>
       <c r="E91" s="1" t="s">
         <v>107</v>
       </c>
@@ -4077,11 +4074,11 @@
       <c r="A92" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="C92" s="9"/>
-      <c r="D92" s="10"/>
+      <c r="C92" s="6"/>
+      <c r="D92" s="7"/>
       <c r="E92" s="1" t="s">
         <v>108</v>
       </c>
@@ -4093,11 +4090,11 @@
       <c r="A93" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B93" s="11" t="s">
+      <c r="B93" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C93" s="12"/>
-      <c r="D93" s="13"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="10"/>
       <c r="E93" s="3" t="s">
         <v>7</v>
       </c>
@@ -4109,11 +4106,11 @@
       <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C94" s="9"/>
-      <c r="D94" s="10"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="7"/>
       <c r="E94" s="1" t="s">
         <v>101</v>
       </c>
@@ -4125,11 +4122,11 @@
       <c r="A95" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B95" s="8" t="s">
+      <c r="B95" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C95" s="9"/>
-      <c r="D95" s="10"/>
+      <c r="C95" s="6"/>
+      <c r="D95" s="7"/>
       <c r="E95" s="1" t="s">
         <v>111</v>
       </c>
@@ -4141,11 +4138,11 @@
       <c r="A96" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C96" s="12"/>
-      <c r="D96" s="13"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="10"/>
       <c r="E96" s="3" t="s">
         <v>7</v>
       </c>
@@ -4157,11 +4154,11 @@
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C97" s="9"/>
-      <c r="D97" s="10"/>
+      <c r="C97" s="6"/>
+      <c r="D97" s="7"/>
       <c r="E97" s="1" t="s">
         <v>114</v>
       </c>
@@ -4173,11 +4170,11 @@
       <c r="A98" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C98" s="12"/>
-      <c r="D98" s="13"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="10"/>
       <c r="E98" s="3" t="s">
         <v>7</v>
       </c>
@@ -4189,11 +4186,11 @@
       <c r="A99" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C99" s="9"/>
-      <c r="D99" s="10"/>
+      <c r="C99" s="6"/>
+      <c r="D99" s="7"/>
       <c r="E99" s="1" t="s">
         <v>117</v>
       </c>
@@ -4205,11 +4202,11 @@
       <c r="A100" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="10"/>
       <c r="E100" s="3" t="s">
         <v>7</v>
       </c>
@@ -4221,11 +4218,11 @@
       <c r="A101" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B101" s="8" t="s">
+      <c r="B101" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="9"/>
-      <c r="D101" s="10"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="7"/>
       <c r="E101" s="1" t="s">
         <v>101</v>
       </c>
@@ -4237,11 +4234,11 @@
       <c r="A102" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C102" s="12"/>
-      <c r="D102" s="13"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="10"/>
       <c r="E102" s="3" t="s">
         <v>7</v>
       </c>
@@ -4253,11 +4250,11 @@
       <c r="A103" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B103" s="8" t="s">
+      <c r="B103" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C103" s="9"/>
-      <c r="D103" s="10"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="7"/>
       <c r="E103" s="1" t="s">
         <v>5</v>
       </c>
@@ -4269,11 +4266,11 @@
       <c r="A104" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="C104" s="12"/>
-      <c r="D104" s="13"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="10"/>
       <c r="E104" s="3" t="s">
         <v>7</v>
       </c>
@@ -4285,11 +4282,11 @@
       <c r="A105" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="B105" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C105" s="9"/>
-      <c r="D105" s="10"/>
+      <c r="C105" s="6"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="1" t="s">
         <v>111</v>
       </c>
@@ -4301,11 +4298,11 @@
       <c r="A106" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B106" s="8" t="s">
+      <c r="B106" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="C106" s="9"/>
-      <c r="D106" s="10"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="7"/>
       <c r="E106" s="1" t="s">
         <v>10</v>
       </c>
@@ -4317,11 +4314,11 @@
       <c r="A107" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="13"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="10"/>
       <c r="E107" s="3" t="s">
         <v>7</v>
       </c>
@@ -4333,11 +4330,11 @@
       <c r="A108" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="9"/>
-      <c r="D108" s="10"/>
+      <c r="C108" s="6"/>
+      <c r="D108" s="7"/>
       <c r="E108" s="1" t="s">
         <v>10</v>
       </c>
@@ -4349,11 +4346,11 @@
       <c r="A109" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C109" s="12"/>
-      <c r="D109" s="13"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="10"/>
       <c r="E109" s="3" t="s">
         <v>7</v>
       </c>
@@ -4365,11 +4362,11 @@
       <c r="A110" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C110" s="9"/>
-      <c r="D110" s="10"/>
+      <c r="C110" s="6"/>
+      <c r="D110" s="7"/>
       <c r="E110" s="1" t="s">
         <v>10</v>
       </c>
@@ -4381,11 +4378,11 @@
       <c r="A111" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="13"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="10"/>
       <c r="E111" s="3" t="s">
         <v>7</v>
       </c>
@@ -4397,11 +4394,11 @@
       <c r="A112" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="C112" s="9"/>
-      <c r="D112" s="10"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="7"/>
       <c r="E112" s="1" t="s">
         <v>10</v>
       </c>
@@ -4413,11 +4410,11 @@
       <c r="A113" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="13"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="10"/>
       <c r="E113" s="3" t="s">
         <v>7</v>
       </c>
@@ -4429,11 +4426,11 @@
       <c r="A114" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B114" s="8" t="s">
+      <c r="B114" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C114" s="9"/>
-      <c r="D114" s="10"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="7"/>
       <c r="E114" s="1" t="s">
         <v>10</v>
       </c>
@@ -4445,11 +4442,11 @@
       <c r="A115" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="13"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="10"/>
       <c r="E115" s="3" t="s">
         <v>7</v>
       </c>
@@ -4461,11 +4458,11 @@
       <c r="A116" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B116" s="8" t="s">
+      <c r="B116" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="C116" s="9"/>
-      <c r="D116" s="10"/>
+      <c r="C116" s="6"/>
+      <c r="D116" s="7"/>
       <c r="E116" s="1" t="s">
         <v>134</v>
       </c>
@@ -4477,11 +4474,11 @@
       <c r="A117" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C117" s="12"/>
-      <c r="D117" s="13"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="10"/>
       <c r="E117" s="3" t="s">
         <v>7</v>
       </c>
@@ -4493,11 +4490,11 @@
       <c r="A118" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C118" s="9"/>
-      <c r="D118" s="10"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="7"/>
       <c r="E118" s="1" t="s">
         <v>137</v>
       </c>
@@ -4509,11 +4506,11 @@
       <c r="A119" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C119" s="12"/>
-      <c r="D119" s="13"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="10"/>
       <c r="E119" s="3" t="s">
         <v>7</v>
       </c>
@@ -4525,11 +4522,11 @@
       <c r="A120" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C120" s="9"/>
-      <c r="D120" s="10"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="7"/>
       <c r="E120" s="1" t="s">
         <v>72</v>
       </c>
@@ -4541,11 +4538,11 @@
       <c r="A121" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C121" s="9"/>
-      <c r="D121" s="10"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="7"/>
       <c r="E121" s="1" t="s">
         <v>140</v>
       </c>
@@ -4557,11 +4554,11 @@
       <c r="A122" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C122" s="12"/>
-      <c r="D122" s="13"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="10"/>
       <c r="E122" s="3" t="s">
         <v>7</v>
       </c>
@@ -4573,11 +4570,11 @@
       <c r="A123" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B123" s="8" t="s">
+      <c r="B123" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C123" s="9"/>
-      <c r="D123" s="10"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="7"/>
       <c r="E123" s="1" t="s">
         <v>72</v>
       </c>
@@ -4589,11 +4586,11 @@
       <c r="A124" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C124" s="9"/>
-      <c r="D124" s="10"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="7"/>
       <c r="E124" s="1" t="s">
         <v>143</v>
       </c>
@@ -4605,11 +4602,11 @@
       <c r="A125" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="C125" s="12"/>
-      <c r="D125" s="13"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="10"/>
       <c r="E125" s="3" t="s">
         <v>7</v>
       </c>
@@ -4621,11 +4618,11 @@
       <c r="A126" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C126" s="9"/>
-      <c r="D126" s="10"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="7"/>
       <c r="E126" s="1" t="s">
         <v>5</v>
       </c>
@@ -4637,11 +4634,11 @@
       <c r="A127" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C127" s="12"/>
-      <c r="D127" s="13"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="10"/>
       <c r="E127" s="3" t="s">
         <v>7</v>
       </c>
@@ -4653,11 +4650,11 @@
       <c r="A128" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B128" s="8" t="s">
+      <c r="B128" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C128" s="9"/>
-      <c r="D128" s="10"/>
+      <c r="C128" s="6"/>
+      <c r="D128" s="7"/>
       <c r="E128" s="1" t="s">
         <v>10</v>
       </c>
@@ -4669,11 +4666,11 @@
       <c r="A129" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C129" s="12"/>
-      <c r="D129" s="13"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="10"/>
       <c r="E129" s="3" t="s">
         <v>7</v>
       </c>
@@ -4685,11 +4682,11 @@
       <c r="A130" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B130" s="8" t="s">
+      <c r="B130" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C130" s="9"/>
-      <c r="D130" s="10"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="7"/>
       <c r="E130" s="1" t="s">
         <v>72</v>
       </c>
@@ -4701,11 +4698,11 @@
       <c r="A131" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C131" s="9"/>
-      <c r="D131" s="10"/>
+      <c r="C131" s="6"/>
+      <c r="D131" s="7"/>
       <c r="E131" s="1" t="s">
         <v>150</v>
       </c>
@@ -4717,11 +4714,11 @@
       <c r="A132" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B132" s="8" t="s">
+      <c r="B132" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C132" s="9"/>
-      <c r="D132" s="10"/>
+      <c r="C132" s="6"/>
+      <c r="D132" s="7"/>
       <c r="E132" s="1" t="s">
         <v>10</v>
       </c>
@@ -4733,11 +4730,11 @@
       <c r="A133" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C133" s="12"/>
-      <c r="D133" s="13"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="10"/>
       <c r="E133" s="3" t="s">
         <v>7</v>
       </c>
@@ -4749,11 +4746,11 @@
       <c r="A134" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B134" s="8" t="s">
+      <c r="B134" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C134" s="9"/>
-      <c r="D134" s="10"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="7"/>
       <c r="E134" s="1" t="s">
         <v>153</v>
       </c>
@@ -4765,11 +4762,11 @@
       <c r="A135" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C135" s="9"/>
-      <c r="D135" s="10"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="7"/>
       <c r="E135" s="1" t="s">
         <v>5</v>
       </c>
@@ -4781,11 +4778,11 @@
       <c r="A136" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B136" s="8" t="s">
+      <c r="B136" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C136" s="9"/>
-      <c r="D136" s="10"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="7"/>
       <c r="E136" s="1" t="s">
         <v>154</v>
       </c>
@@ -4797,11 +4794,11 @@
       <c r="A137" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C137" s="9"/>
-      <c r="D137" s="10"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="7"/>
       <c r="E137" s="1" t="s">
         <v>140</v>
       </c>
@@ -4813,11 +4810,11 @@
       <c r="A138" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B138" s="8" t="s">
+      <c r="B138" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C138" s="9"/>
-      <c r="D138" s="10"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="7"/>
       <c r="E138" s="1" t="s">
         <v>155</v>
       </c>
@@ -4829,11 +4826,11 @@
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B139" s="8" t="s">
+      <c r="B139" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C139" s="9"/>
-      <c r="D139" s="10"/>
+      <c r="C139" s="6"/>
+      <c r="D139" s="7"/>
       <c r="E139" s="1" t="s">
         <v>10</v>
       </c>
@@ -4845,11 +4842,11 @@
       <c r="A140" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C140" s="12"/>
-      <c r="D140" s="13"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="3" t="s">
         <v>7</v>
       </c>
@@ -4861,11 +4858,11 @@
       <c r="A141" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B141" s="8" t="s">
+      <c r="B141" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="10"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="7"/>
       <c r="E141" s="1" t="s">
         <v>158</v>
       </c>
@@ -4877,11 +4874,11 @@
       <c r="A142" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B142" s="8" t="s">
+      <c r="B142" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C142" s="9"/>
-      <c r="D142" s="10"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="7"/>
       <c r="E142" s="1" t="s">
         <v>150</v>
       </c>
@@ -4893,11 +4890,11 @@
       <c r="A143" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C143" s="12"/>
-      <c r="D143" s="13"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="10"/>
       <c r="E143" s="3" t="s">
         <v>7</v>
       </c>
@@ -4909,11 +4906,11 @@
       <c r="A144" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C144" s="9"/>
-      <c r="D144" s="10"/>
+      <c r="C144" s="6"/>
+      <c r="D144" s="7"/>
       <c r="E144" s="1" t="s">
         <v>161</v>
       </c>
@@ -4925,11 +4922,11 @@
       <c r="A145" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C145" s="12"/>
-      <c r="D145" s="13"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="10"/>
       <c r="E145" s="3" t="s">
         <v>7</v>
       </c>
@@ -4941,11 +4938,11 @@
       <c r="A146" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B146" s="8" t="s">
+      <c r="B146" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C146" s="9"/>
-      <c r="D146" s="10"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="7"/>
       <c r="E146" s="1" t="s">
         <v>164</v>
       </c>
@@ -4957,11 +4954,11 @@
       <c r="A147" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C147" s="12"/>
-      <c r="D147" s="13"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="10"/>
       <c r="E147" s="3" t="s">
         <v>7</v>
       </c>
@@ -4973,11 +4970,11 @@
       <c r="A148" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B148" s="8" t="s">
+      <c r="B148" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C148" s="9"/>
-      <c r="D148" s="10"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="7"/>
       <c r="E148" s="1" t="s">
         <v>167</v>
       </c>
@@ -4989,11 +4986,11 @@
       <c r="A149" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C149" s="12"/>
-      <c r="D149" s="13"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="10"/>
       <c r="E149" s="3" t="s">
         <v>7</v>
       </c>
@@ -5005,11 +5002,11 @@
       <c r="A150" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B150" s="8" t="s">
+      <c r="B150" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C150" s="9"/>
-      <c r="D150" s="10"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="7"/>
       <c r="E150" s="1" t="s">
         <v>5</v>
       </c>
@@ -5021,11 +5018,11 @@
       <c r="A151" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B151" s="8" t="s">
+      <c r="B151" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C151" s="9"/>
-      <c r="D151" s="10"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="7"/>
       <c r="E151" s="1" t="s">
         <v>170</v>
       </c>
@@ -5037,11 +5034,11 @@
       <c r="A152" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C152" s="12"/>
-      <c r="D152" s="13"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="10"/>
       <c r="E152" s="3" t="s">
         <v>7</v>
       </c>
@@ -5053,11 +5050,11 @@
       <c r="A153" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B153" s="8" t="s">
+      <c r="B153" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C153" s="9"/>
-      <c r="D153" s="10"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="7"/>
       <c r="E153" s="1" t="s">
         <v>10</v>
       </c>
@@ -5069,11 +5066,11 @@
       <c r="A154" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C154" s="12"/>
-      <c r="D154" s="13"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="10"/>
       <c r="E154" s="3" t="s">
         <v>7</v>
       </c>
@@ -5085,11 +5082,11 @@
       <c r="A155" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C155" s="9"/>
-      <c r="D155" s="10"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="7"/>
       <c r="E155" s="1" t="s">
         <v>10</v>
       </c>
@@ -5101,11 +5098,11 @@
       <c r="A156" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C156" s="12"/>
-      <c r="D156" s="13"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="10"/>
       <c r="E156" s="3" t="s">
         <v>7</v>
       </c>
@@ -5117,11 +5114,11 @@
       <c r="A157" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B157" s="8" t="s">
+      <c r="B157" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C157" s="9"/>
-      <c r="D157" s="10"/>
+      <c r="C157" s="6"/>
+      <c r="D157" s="7"/>
       <c r="E157" s="1" t="s">
         <v>143</v>
       </c>
@@ -5133,11 +5130,11 @@
       <c r="A158" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C158" s="12"/>
-      <c r="D158" s="13"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="10"/>
       <c r="E158" s="3" t="s">
         <v>7</v>
       </c>
@@ -5149,11 +5146,11 @@
       <c r="A159" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B159" s="8" t="s">
+      <c r="B159" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C159" s="9"/>
-      <c r="D159" s="10"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="7"/>
       <c r="E159" s="1" t="s">
         <v>10</v>
       </c>
@@ -5165,11 +5162,11 @@
       <c r="A160" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="C160" s="12"/>
-      <c r="D160" s="13"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="10"/>
       <c r="E160" s="3" t="s">
         <v>7</v>
       </c>
@@ -5181,11 +5178,11 @@
       <c r="A161" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B161" s="8" t="s">
+      <c r="B161" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C161" s="9"/>
-      <c r="D161" s="10"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="7"/>
       <c r="E161" s="1" t="s">
         <v>181</v>
       </c>
@@ -5197,11 +5194,11 @@
       <c r="A162" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B162" s="8" t="s">
+      <c r="B162" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C162" s="9"/>
-      <c r="D162" s="10"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="7"/>
       <c r="E162" s="1" t="s">
         <v>182</v>
       </c>
@@ -5213,11 +5210,11 @@
       <c r="A163" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="C163" s="12"/>
-      <c r="D163" s="13"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="10"/>
       <c r="E163" s="3" t="s">
         <v>7</v>
       </c>
@@ -5229,11 +5226,11 @@
       <c r="A164" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B164" s="8" t="s">
+      <c r="B164" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C164" s="9"/>
-      <c r="D164" s="10"/>
+      <c r="C164" s="6"/>
+      <c r="D164" s="7"/>
       <c r="E164" s="1" t="s">
         <v>185</v>
       </c>
@@ -5245,11 +5242,11 @@
       <c r="A165" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B165" s="8" t="s">
+      <c r="B165" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C165" s="9"/>
-      <c r="D165" s="10"/>
+      <c r="C165" s="6"/>
+      <c r="D165" s="7"/>
       <c r="E165" s="1" t="s">
         <v>186</v>
       </c>
@@ -5261,11 +5258,11 @@
       <c r="A166" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C166" s="9"/>
-      <c r="D166" s="10"/>
+      <c r="C166" s="6"/>
+      <c r="D166" s="7"/>
       <c r="E166" s="1" t="s">
         <v>187</v>
       </c>
@@ -5277,11 +5274,11 @@
       <c r="A167" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C167" s="12"/>
-      <c r="D167" s="13"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="10"/>
       <c r="E167" s="3" t="s">
         <v>7</v>
       </c>
@@ -5293,11 +5290,11 @@
       <c r="A168" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C168" s="9"/>
-      <c r="D168" s="10"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="7"/>
       <c r="E168" s="1" t="s">
         <v>190</v>
       </c>
@@ -5309,11 +5306,11 @@
       <c r="A169" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C169" s="12"/>
-      <c r="D169" s="13"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="10"/>
       <c r="E169" s="3" t="s">
         <v>7</v>
       </c>
@@ -5325,11 +5322,11 @@
       <c r="A170" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B170" s="8" t="s">
+      <c r="B170" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="10"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="7"/>
       <c r="E170" s="1" t="s">
         <v>182</v>
       </c>
@@ -5341,11 +5338,11 @@
       <c r="A171" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="C171" s="12"/>
-      <c r="D171" s="13"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="10"/>
       <c r="E171" s="3" t="s">
         <v>7</v>
       </c>
@@ -5357,11 +5354,11 @@
       <c r="A172" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B172" s="8" t="s">
+      <c r="B172" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C172" s="9"/>
-      <c r="D172" s="10"/>
+      <c r="C172" s="6"/>
+      <c r="D172" s="7"/>
       <c r="E172" s="1" t="s">
         <v>10</v>
       </c>
@@ -5373,11 +5370,11 @@
       <c r="A173" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C173" s="12"/>
-      <c r="D173" s="13"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="10"/>
       <c r="E173" s="3" t="s">
         <v>7</v>
       </c>
@@ -5389,11 +5386,11 @@
       <c r="A174" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B174" s="8" t="s">
+      <c r="B174" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C174" s="9"/>
-      <c r="D174" s="10"/>
+      <c r="C174" s="6"/>
+      <c r="D174" s="7"/>
       <c r="E174" s="1" t="s">
         <v>5</v>
       </c>
@@ -5405,11 +5402,11 @@
       <c r="A175" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C175" s="12"/>
-      <c r="D175" s="13"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="10"/>
       <c r="E175" s="3" t="s">
         <v>7</v>
       </c>
@@ -5421,11 +5418,11 @@
       <c r="A176" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B176" s="8" t="s">
+      <c r="B176" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C176" s="9"/>
-      <c r="D176" s="10"/>
+      <c r="C176" s="6"/>
+      <c r="D176" s="7"/>
       <c r="E176" s="1" t="s">
         <v>5</v>
       </c>
@@ -5437,11 +5434,11 @@
       <c r="A177" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="C177" s="12"/>
-      <c r="D177" s="13"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="10"/>
       <c r="E177" s="3" t="s">
         <v>7</v>
       </c>
@@ -5453,11 +5450,11 @@
       <c r="A178" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B178" s="8" t="s">
+      <c r="B178" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C178" s="9"/>
-      <c r="D178" s="10"/>
+      <c r="C178" s="6"/>
+      <c r="D178" s="7"/>
       <c r="E178" s="1" t="s">
         <v>201</v>
       </c>
@@ -5469,11 +5466,11 @@
       <c r="A179" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B179" s="8" t="s">
+      <c r="B179" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C179" s="9"/>
-      <c r="D179" s="10"/>
+      <c r="C179" s="6"/>
+      <c r="D179" s="7"/>
       <c r="E179" s="1" t="s">
         <v>202</v>
       </c>
@@ -5485,11 +5482,11 @@
       <c r="A180" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="C180" s="12"/>
-      <c r="D180" s="13"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="10"/>
       <c r="E180" s="3" t="s">
         <v>7</v>
       </c>
@@ -5501,11 +5498,11 @@
       <c r="A181" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B181" s="8" t="s">
+      <c r="B181" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C181" s="9"/>
-      <c r="D181" s="10"/>
+      <c r="C181" s="6"/>
+      <c r="D181" s="7"/>
       <c r="E181" s="1" t="s">
         <v>205</v>
       </c>
@@ -5517,11 +5514,11 @@
       <c r="A182" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C182" s="12"/>
-      <c r="D182" s="13"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="10"/>
       <c r="E182" s="3" t="s">
         <v>7</v>
       </c>
@@ -5533,11 +5530,11 @@
       <c r="A183" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B183" s="8" t="s">
+      <c r="B183" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C183" s="9"/>
-      <c r="D183" s="10"/>
+      <c r="C183" s="6"/>
+      <c r="D183" s="7"/>
       <c r="E183" s="1" t="s">
         <v>208</v>
       </c>
@@ -5549,11 +5546,11 @@
       <c r="A184" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C184" s="12"/>
-      <c r="D184" s="13"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="10"/>
       <c r="E184" s="3" t="s">
         <v>7</v>
       </c>
@@ -5565,11 +5562,11 @@
       <c r="A185" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B185" s="8" t="s">
+      <c r="B185" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C185" s="9"/>
-      <c r="D185" s="10"/>
+      <c r="C185" s="6"/>
+      <c r="D185" s="7"/>
       <c r="E185" s="1" t="s">
         <v>111</v>
       </c>
@@ -5581,11 +5578,11 @@
       <c r="A186" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="C186" s="12"/>
-      <c r="D186" s="13"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="10"/>
       <c r="E186" s="3" t="s">
         <v>7</v>
       </c>
@@ -5597,11 +5594,11 @@
       <c r="A187" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B187" s="8" t="s">
+      <c r="B187" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C187" s="9"/>
-      <c r="D187" s="10"/>
+      <c r="C187" s="6"/>
+      <c r="D187" s="7"/>
       <c r="E187" s="1" t="s">
         <v>213</v>
       </c>
@@ -5613,11 +5610,11 @@
       <c r="A188" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C188" s="12"/>
-      <c r="D188" s="13"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="10"/>
       <c r="E188" s="3" t="s">
         <v>7</v>
       </c>
@@ -5629,11 +5626,11 @@
       <c r="A189" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B189" s="8" t="s">
+      <c r="B189" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C189" s="9"/>
-      <c r="D189" s="10"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="7"/>
       <c r="E189" s="1" t="s">
         <v>182</v>
       </c>
@@ -5645,11 +5642,11 @@
       <c r="A190" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="C190" s="12"/>
-      <c r="D190" s="13"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="10"/>
       <c r="E190" s="3" t="s">
         <v>7</v>
       </c>
@@ -5661,11 +5658,11 @@
       <c r="A191" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B191" s="8" t="s">
+      <c r="B191" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C191" s="9"/>
-      <c r="D191" s="10"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="7"/>
       <c r="E191" s="1" t="s">
         <v>218</v>
       </c>
@@ -5677,11 +5674,11 @@
       <c r="A192" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B192" s="8" t="s">
+      <c r="B192" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C192" s="9"/>
-      <c r="D192" s="10"/>
+      <c r="C192" s="6"/>
+      <c r="D192" s="7"/>
       <c r="E192" s="1" t="s">
         <v>219</v>
       </c>
@@ -5693,11 +5690,11 @@
       <c r="A193" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C193" s="12"/>
-      <c r="D193" s="13"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="10"/>
       <c r="E193" s="3" t="s">
         <v>7</v>
       </c>
@@ -5709,11 +5706,11 @@
       <c r="A194" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B194" s="8" t="s">
+      <c r="B194" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C194" s="9"/>
-      <c r="D194" s="10"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="7"/>
       <c r="E194" s="1" t="s">
         <v>213</v>
       </c>
@@ -5725,11 +5722,11 @@
       <c r="A195" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B195" s="8" t="s">
+      <c r="B195" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C195" s="9"/>
-      <c r="D195" s="10"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="7"/>
       <c r="E195" s="1" t="s">
         <v>222</v>
       </c>
@@ -5741,11 +5738,11 @@
       <c r="A196" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="B196" s="8" t="s">
+      <c r="B196" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C196" s="9"/>
-      <c r="D196" s="10"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="7"/>
       <c r="E196" s="1" t="s">
         <v>10</v>
       </c>
@@ -5757,11 +5754,11 @@
       <c r="A197" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="C197" s="12"/>
-      <c r="D197" s="13"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="10"/>
       <c r="E197" s="3" t="s">
         <v>7</v>
       </c>
@@ -5773,11 +5770,11 @@
       <c r="A198" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B198" s="8" t="s">
+      <c r="B198" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C198" s="9"/>
-      <c r="D198" s="10"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="7"/>
       <c r="E198" s="1" t="s">
         <v>10</v>
       </c>
@@ -5789,11 +5786,11 @@
       <c r="A199" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="C199" s="12"/>
-      <c r="D199" s="13"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="10"/>
       <c r="E199" s="3" t="s">
         <v>7</v>
       </c>
@@ -5805,11 +5802,11 @@
       <c r="A200" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B200" s="8" t="s">
+      <c r="B200" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C200" s="9"/>
-      <c r="D200" s="10"/>
+      <c r="C200" s="6"/>
+      <c r="D200" s="7"/>
       <c r="E200" s="1" t="s">
         <v>227</v>
       </c>
@@ -5821,11 +5818,11 @@
       <c r="A201" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="C201" s="12"/>
-      <c r="D201" s="13"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="10"/>
       <c r="E201" s="3" t="s">
         <v>7</v>
       </c>
@@ -5837,11 +5834,11 @@
       <c r="A202" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B202" s="8" t="s">
+      <c r="B202" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="C202" s="9"/>
-      <c r="D202" s="10"/>
+      <c r="C202" s="6"/>
+      <c r="D202" s="7"/>
       <c r="E202" s="1" t="s">
         <v>230</v>
       </c>
@@ -5853,11 +5850,11 @@
       <c r="A203" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="B203" s="11" t="s">
+      <c r="B203" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C203" s="12"/>
-      <c r="D203" s="13"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="10"/>
       <c r="E203" s="3" t="s">
         <v>7</v>
       </c>
@@ -5869,11 +5866,11 @@
       <c r="A204" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B204" s="8" t="s">
+      <c r="B204" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C204" s="9"/>
-      <c r="D204" s="10"/>
+      <c r="C204" s="6"/>
+      <c r="D204" s="7"/>
       <c r="E204" s="1" t="s">
         <v>10</v>
       </c>
@@ -5885,11 +5882,11 @@
       <c r="A205" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="C205" s="12"/>
-      <c r="D205" s="13"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="10"/>
       <c r="E205" s="3" t="s">
         <v>7</v>
       </c>
@@ -5901,11 +5898,11 @@
       <c r="A206" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B206" s="8" t="s">
+      <c r="B206" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C206" s="9"/>
-      <c r="D206" s="10"/>
+      <c r="C206" s="6"/>
+      <c r="D206" s="7"/>
       <c r="E206" s="1" t="s">
         <v>10</v>
       </c>
@@ -5917,11 +5914,11 @@
       <c r="A207" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B207" s="11" t="s">
+      <c r="B207" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C207" s="12"/>
-      <c r="D207" s="13"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="10"/>
       <c r="E207" s="3" t="s">
         <v>7</v>
       </c>
@@ -5933,11 +5930,11 @@
       <c r="A208" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B208" s="8" t="s">
+      <c r="B208" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C208" s="9"/>
-      <c r="D208" s="10"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="7"/>
       <c r="E208" s="1" t="s">
         <v>237</v>
       </c>
@@ -5949,11 +5946,11 @@
       <c r="A209" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="B209" s="8" t="s">
+      <c r="B209" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C209" s="9"/>
-      <c r="D209" s="10"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="7"/>
       <c r="E209" s="1" t="s">
         <v>10</v>
       </c>
@@ -5965,11 +5962,11 @@
       <c r="A210" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C210" s="12"/>
-      <c r="D210" s="13"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="10"/>
       <c r="E210" s="3" t="s">
         <v>7</v>
       </c>
@@ -5981,11 +5978,11 @@
       <c r="A211" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B211" s="8" t="s">
+      <c r="B211" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C211" s="9"/>
-      <c r="D211" s="10"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="7"/>
       <c r="E211" s="1" t="s">
         <v>10</v>
       </c>
@@ -5997,11 +5994,11 @@
       <c r="A212" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C212" s="12"/>
-      <c r="D212" s="13"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="10"/>
       <c r="E212" s="3" t="s">
         <v>7</v>
       </c>
@@ -6013,11 +6010,11 @@
       <c r="A213" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B213" s="8" t="s">
+      <c r="B213" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C213" s="9"/>
-      <c r="D213" s="10"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="7"/>
       <c r="E213" s="1" t="s">
         <v>227</v>
       </c>
@@ -6029,11 +6026,11 @@
       <c r="A214" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B214" s="8" t="s">
+      <c r="B214" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C214" s="9"/>
-      <c r="D214" s="10"/>
+      <c r="C214" s="6"/>
+      <c r="D214" s="7"/>
       <c r="E214" s="1" t="s">
         <v>242</v>
       </c>
@@ -6045,11 +6042,11 @@
       <c r="A215" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="C215" s="12"/>
-      <c r="D215" s="13"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="10"/>
       <c r="E215" s="3" t="s">
         <v>7</v>
       </c>
@@ -6061,11 +6058,11 @@
       <c r="A216" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B216" s="8" t="s">
+      <c r="B216" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C216" s="9"/>
-      <c r="D216" s="10"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="7"/>
       <c r="E216" s="1" t="s">
         <v>218</v>
       </c>
@@ -6077,11 +6074,11 @@
       <c r="A217" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B217" s="11" t="s">
+      <c r="B217" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C217" s="12"/>
-      <c r="D217" s="13"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="10"/>
       <c r="E217" s="3" t="s">
         <v>7</v>
       </c>
@@ -6093,11 +6090,11 @@
       <c r="A218" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B218" s="8" t="s">
+      <c r="B218" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C218" s="9"/>
-      <c r="D218" s="10"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="7"/>
       <c r="E218" s="1" t="s">
         <v>218</v>
       </c>
@@ -6109,11 +6106,11 @@
       <c r="A219" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B219" s="8" t="s">
+      <c r="B219" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C219" s="9"/>
-      <c r="D219" s="10"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="7"/>
       <c r="E219" s="1" t="s">
         <v>230</v>
       </c>
@@ -6125,11 +6122,11 @@
       <c r="A220" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B220" s="8" t="s">
+      <c r="B220" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C220" s="9"/>
-      <c r="D220" s="10"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="7"/>
       <c r="E220" s="1" t="s">
         <v>10</v>
       </c>
@@ -6141,11 +6138,11 @@
       <c r="A221" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B221" s="11" t="s">
+      <c r="B221" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="C221" s="12"/>
-      <c r="D221" s="13"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="10"/>
       <c r="E221" s="3" t="s">
         <v>7</v>
       </c>
@@ -6157,11 +6154,11 @@
       <c r="A222" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B222" s="8" t="s">
+      <c r="B222" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="10"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="7"/>
       <c r="E222" s="1" t="s">
         <v>10</v>
       </c>
@@ -6173,11 +6170,11 @@
       <c r="A223" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B223" s="11" t="s">
+      <c r="B223" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="C223" s="12"/>
-      <c r="D223" s="13"/>
+      <c r="C223" s="9"/>
+      <c r="D223" s="10"/>
       <c r="E223" s="3" t="s">
         <v>7</v>
       </c>
@@ -6189,11 +6186,11 @@
       <c r="A224" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B224" s="8" t="s">
+      <c r="B224" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C224" s="9"/>
-      <c r="D224" s="10"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="7"/>
       <c r="E224" s="1" t="s">
         <v>10</v>
       </c>
@@ -6205,11 +6202,11 @@
       <c r="A225" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="C225" s="12"/>
-      <c r="D225" s="13"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="10"/>
       <c r="E225" s="3" t="s">
         <v>7</v>
       </c>
@@ -6221,11 +6218,11 @@
       <c r="A226" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="B226" s="8" t="s">
+      <c r="B226" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C226" s="9"/>
-      <c r="D226" s="10"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="7"/>
       <c r="E226" s="1" t="s">
         <v>10</v>
       </c>
@@ -6237,11 +6234,11 @@
       <c r="A227" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B227" s="11" t="s">
+      <c r="B227" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C227" s="12"/>
-      <c r="D227" s="13"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="10"/>
       <c r="E227" s="3" t="s">
         <v>7</v>
       </c>
@@ -6253,11 +6250,11 @@
       <c r="A228" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B228" s="8" t="s">
+      <c r="B228" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C228" s="9"/>
-      <c r="D228" s="10"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="7"/>
       <c r="E228" s="1" t="s">
         <v>10</v>
       </c>
@@ -6269,11 +6266,11 @@
       <c r="A229" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="B229" s="11" t="s">
+      <c r="B229" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C229" s="12"/>
-      <c r="D229" s="13"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="10"/>
       <c r="E229" s="3" t="s">
         <v>7</v>
       </c>
@@ -6285,11 +6282,11 @@
       <c r="A230" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B230" s="8" t="s">
+      <c r="B230" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="C230" s="9"/>
-      <c r="D230" s="10"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="7"/>
       <c r="E230" s="1" t="s">
         <v>10</v>
       </c>
@@ -6301,11 +6298,11 @@
       <c r="A231" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="C231" s="12"/>
-      <c r="D231" s="13"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="10"/>
       <c r="E231" s="3" t="s">
         <v>7</v>
       </c>
@@ -6317,11 +6314,11 @@
       <c r="A232" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B232" s="8" t="s">
+      <c r="B232" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C232" s="9"/>
-      <c r="D232" s="10"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="7"/>
       <c r="E232" s="1" t="s">
         <v>10</v>
       </c>
@@ -6333,11 +6330,11 @@
       <c r="A233" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C233" s="12"/>
-      <c r="D233" s="13"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="10"/>
       <c r="E233" s="3" t="s">
         <v>7</v>
       </c>
@@ -6349,11 +6346,11 @@
       <c r="A234" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B234" s="8" t="s">
+      <c r="B234" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="C234" s="9"/>
-      <c r="D234" s="10"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="7"/>
       <c r="E234" s="1" t="s">
         <v>10</v>
       </c>
@@ -6365,11 +6362,11 @@
       <c r="A235" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="C235" s="12"/>
-      <c r="D235" s="13"/>
+      <c r="C235" s="9"/>
+      <c r="D235" s="10"/>
       <c r="E235" s="3" t="s">
         <v>7</v>
       </c>
@@ -6381,11 +6378,11 @@
       <c r="A236" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B236" s="8" t="s">
+      <c r="B236" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C236" s="9"/>
-      <c r="D236" s="10"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="7"/>
       <c r="E236" s="1" t="s">
         <v>263</v>
       </c>
@@ -6397,11 +6394,11 @@
       <c r="A237" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B237" s="8" t="s">
+      <c r="B237" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C237" s="9"/>
-      <c r="D237" s="10"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="7"/>
       <c r="E237" s="1" t="s">
         <v>264</v>
       </c>
@@ -6413,11 +6410,11 @@
       <c r="A238" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="B238" s="8" t="s">
+      <c r="B238" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C238" s="9"/>
-      <c r="D238" s="10"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="7"/>
       <c r="E238" s="1" t="s">
         <v>182</v>
       </c>
@@ -6429,11 +6426,11 @@
       <c r="A239" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="B239" s="11" t="s">
+      <c r="B239" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="C239" s="12"/>
-      <c r="D239" s="13"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="10"/>
       <c r="E239" s="3" t="s">
         <v>7</v>
       </c>
@@ -6445,11 +6442,11 @@
       <c r="A240" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B240" s="8" t="s">
+      <c r="B240" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="10"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="7"/>
       <c r="E240" s="1" t="s">
         <v>205</v>
       </c>
@@ -6461,11 +6458,11 @@
       <c r="A241" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="B241" s="8" t="s">
+      <c r="B241" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C241" s="9"/>
-      <c r="D241" s="10"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="7"/>
       <c r="E241" s="1" t="s">
         <v>10</v>
       </c>
@@ -6477,11 +6474,11 @@
       <c r="A242" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="C242" s="12"/>
-      <c r="D242" s="13"/>
+      <c r="C242" s="9"/>
+      <c r="D242" s="10"/>
       <c r="E242" s="3" t="s">
         <v>7</v>
       </c>
@@ -6493,11 +6490,11 @@
       <c r="A243" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B243" s="8" t="s">
+      <c r="B243" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C243" s="9"/>
-      <c r="D243" s="10"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="7"/>
       <c r="E243" s="1" t="s">
         <v>269</v>
       </c>
@@ -6509,11 +6506,11 @@
       <c r="A244" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="B244" s="11" t="s">
+      <c r="B244" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="C244" s="12"/>
-      <c r="D244" s="13"/>
+      <c r="C244" s="9"/>
+      <c r="D244" s="10"/>
       <c r="E244" s="3" t="s">
         <v>7</v>
       </c>
@@ -6525,11 +6522,11 @@
       <c r="A245" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B245" s="8" t="s">
+      <c r="B245" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C245" s="9"/>
-      <c r="D245" s="10"/>
+      <c r="C245" s="6"/>
+      <c r="D245" s="7"/>
       <c r="E245" s="1" t="s">
         <v>272</v>
       </c>
@@ -6541,11 +6538,11 @@
       <c r="A246" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B246" s="8" t="s">
+      <c r="B246" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C246" s="9"/>
-      <c r="D246" s="10"/>
+      <c r="C246" s="6"/>
+      <c r="D246" s="7"/>
       <c r="E246" s="1" t="s">
         <v>5</v>
       </c>
@@ -6557,11 +6554,11 @@
       <c r="A247" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B247" s="8" t="s">
+      <c r="B247" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C247" s="9"/>
-      <c r="D247" s="10"/>
+      <c r="C247" s="6"/>
+      <c r="D247" s="7"/>
       <c r="E247" s="1" t="s">
         <v>10</v>
       </c>
@@ -6573,11 +6570,11 @@
       <c r="A248" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B248" s="11" t="s">
+      <c r="B248" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C248" s="12"/>
-      <c r="D248" s="13"/>
+      <c r="C248" s="9"/>
+      <c r="D248" s="10"/>
       <c r="E248" s="3" t="s">
         <v>7</v>
       </c>
@@ -6589,11 +6586,11 @@
       <c r="A249" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C249" s="9"/>
-      <c r="D249" s="10"/>
+      <c r="C249" s="6"/>
+      <c r="D249" s="7"/>
       <c r="E249" s="1" t="s">
         <v>10</v>
       </c>
@@ -6605,11 +6602,11 @@
       <c r="A250" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B250" s="11" t="s">
+      <c r="B250" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="C250" s="12"/>
-      <c r="D250" s="13"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="10"/>
       <c r="E250" s="3" t="s">
         <v>7</v>
       </c>
@@ -6621,11 +6618,11 @@
       <c r="A251" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C251" s="9"/>
-      <c r="D251" s="10"/>
+      <c r="C251" s="6"/>
+      <c r="D251" s="7"/>
       <c r="E251" s="1" t="s">
         <v>277</v>
       </c>
@@ -6637,11 +6634,11 @@
       <c r="A252" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B252" s="8" t="s">
+      <c r="B252" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C252" s="9"/>
-      <c r="D252" s="10"/>
+      <c r="C252" s="6"/>
+      <c r="D252" s="7"/>
       <c r="E252" s="1" t="s">
         <v>278</v>
       </c>
@@ -6653,11 +6650,11 @@
       <c r="A253" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B253" s="8" t="s">
+      <c r="B253" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C253" s="9"/>
-      <c r="D253" s="10"/>
+      <c r="C253" s="6"/>
+      <c r="D253" s="7"/>
       <c r="E253" s="1" t="s">
         <v>10</v>
       </c>
@@ -6669,11 +6666,11 @@
       <c r="A254" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B254" s="11" t="s">
+      <c r="B254" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="C254" s="12"/>
-      <c r="D254" s="13"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="10"/>
       <c r="E254" s="3" t="s">
         <v>7</v>
       </c>
@@ -6685,11 +6682,11 @@
       <c r="A255" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B255" s="8" t="s">
+      <c r="B255" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C255" s="9"/>
-      <c r="D255" s="10"/>
+      <c r="C255" s="6"/>
+      <c r="D255" s="7"/>
       <c r="E255" s="1" t="s">
         <v>10</v>
       </c>
@@ -6701,11 +6698,11 @@
       <c r="A256" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B256" s="11" t="s">
+      <c r="B256" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="C256" s="12"/>
-      <c r="D256" s="13"/>
+      <c r="C256" s="9"/>
+      <c r="D256" s="10"/>
       <c r="E256" s="3" t="s">
         <v>7</v>
       </c>
@@ -6717,11 +6714,11 @@
       <c r="A257" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B257" s="8" t="s">
+      <c r="B257" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C257" s="9"/>
-      <c r="D257" s="10"/>
+      <c r="C257" s="6"/>
+      <c r="D257" s="7"/>
       <c r="E257" s="1" t="s">
         <v>10</v>
       </c>
@@ -6733,11 +6730,11 @@
       <c r="A258" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B258" s="11" t="s">
+      <c r="B258" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="C258" s="12"/>
-      <c r="D258" s="13"/>
+      <c r="C258" s="9"/>
+      <c r="D258" s="10"/>
       <c r="E258" s="3" t="s">
         <v>7</v>
       </c>
@@ -6749,11 +6746,11 @@
       <c r="A259" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B259" s="8" t="s">
+      <c r="B259" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C259" s="9"/>
-      <c r="D259" s="10"/>
+      <c r="C259" s="6"/>
+      <c r="D259" s="7"/>
       <c r="E259" s="1" t="s">
         <v>10</v>
       </c>
@@ -6765,11 +6762,11 @@
       <c r="A260" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B260" s="8" t="s">
+      <c r="B260" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C260" s="9"/>
-      <c r="D260" s="10"/>
+      <c r="C260" s="6"/>
+      <c r="D260" s="7"/>
       <c r="E260" s="1" t="s">
         <v>285</v>
       </c>
@@ -6781,11 +6778,11 @@
       <c r="A261" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B261" s="11" t="s">
+      <c r="B261" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C261" s="12"/>
-      <c r="D261" s="13"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="10"/>
       <c r="E261" s="3" t="s">
         <v>7</v>
       </c>
@@ -6797,11 +6794,11 @@
       <c r="A262" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="B262" s="8" t="s">
+      <c r="B262" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C262" s="9"/>
-      <c r="D262" s="10"/>
+      <c r="C262" s="6"/>
+      <c r="D262" s="7"/>
       <c r="E262" s="1" t="s">
         <v>10</v>
       </c>
@@ -6813,11 +6810,11 @@
       <c r="A263" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B263" s="11" t="s">
+      <c r="B263" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="C263" s="12"/>
-      <c r="D263" s="13"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="10"/>
       <c r="E263" s="3" t="s">
         <v>7</v>
       </c>
@@ -6829,11 +6826,11 @@
       <c r="A264" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B264" s="8" t="s">
+      <c r="B264" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C264" s="9"/>
-      <c r="D264" s="10"/>
+      <c r="C264" s="6"/>
+      <c r="D264" s="7"/>
       <c r="E264" s="1" t="s">
         <v>10</v>
       </c>
@@ -6845,11 +6842,11 @@
       <c r="A265" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B265" s="11" t="s">
+      <c r="B265" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C265" s="12"/>
-      <c r="D265" s="13"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="10"/>
       <c r="E265" s="3" t="s">
         <v>7</v>
       </c>
@@ -6861,11 +6858,11 @@
       <c r="A266" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B266" s="8" t="s">
+      <c r="B266" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C266" s="9"/>
-      <c r="D266" s="10"/>
+      <c r="C266" s="6"/>
+      <c r="D266" s="7"/>
       <c r="E266" s="1" t="s">
         <v>111</v>
       </c>
@@ -6877,11 +6874,11 @@
       <c r="A267" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B267" s="8" t="s">
+      <c r="B267" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C267" s="9"/>
-      <c r="D267" s="10"/>
+      <c r="C267" s="6"/>
+      <c r="D267" s="7"/>
       <c r="E267" s="1" t="s">
         <v>10</v>
       </c>
@@ -6893,11 +6890,11 @@
       <c r="A268" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B268" s="11" t="s">
+      <c r="B268" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C268" s="12"/>
-      <c r="D268" s="13"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="10"/>
       <c r="E268" s="3" t="s">
         <v>7</v>
       </c>
@@ -6909,11 +6906,11 @@
       <c r="A269" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B269" s="8" t="s">
+      <c r="B269" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C269" s="9"/>
-      <c r="D269" s="10"/>
+      <c r="C269" s="6"/>
+      <c r="D269" s="7"/>
       <c r="E269" s="1" t="s">
         <v>111</v>
       </c>
@@ -6925,11 +6922,11 @@
       <c r="A270" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B270" s="8" t="s">
+      <c r="B270" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C270" s="9"/>
-      <c r="D270" s="10"/>
+      <c r="C270" s="6"/>
+      <c r="D270" s="7"/>
       <c r="E270" s="1" t="s">
         <v>10</v>
       </c>
@@ -6941,11 +6938,11 @@
       <c r="A271" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B271" s="11" t="s">
+      <c r="B271" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="C271" s="12"/>
-      <c r="D271" s="13"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="10"/>
       <c r="E271" s="3" t="s">
         <v>7</v>
       </c>
@@ -6957,11 +6954,11 @@
       <c r="A272" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="B272" s="8" t="s">
+      <c r="B272" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C272" s="9"/>
-      <c r="D272" s="10"/>
+      <c r="C272" s="6"/>
+      <c r="D272" s="7"/>
       <c r="E272" s="1" t="s">
         <v>10</v>
       </c>
@@ -6973,11 +6970,11 @@
       <c r="A273" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B273" s="11" t="s">
+      <c r="B273" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C273" s="12"/>
-      <c r="D273" s="13"/>
+      <c r="C273" s="9"/>
+      <c r="D273" s="10"/>
       <c r="E273" s="3" t="s">
         <v>7</v>
       </c>
@@ -6989,11 +6986,11 @@
       <c r="A274" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B274" s="8" t="s">
+      <c r="B274" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C274" s="9"/>
-      <c r="D274" s="10"/>
+      <c r="C274" s="6"/>
+      <c r="D274" s="7"/>
       <c r="E274" s="1" t="s">
         <v>298</v>
       </c>
@@ -7005,11 +7002,11 @@
       <c r="A275" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="B275" s="8" t="s">
+      <c r="B275" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C275" s="9"/>
-      <c r="D275" s="10"/>
+      <c r="C275" s="6"/>
+      <c r="D275" s="7"/>
       <c r="E275" s="1" t="s">
         <v>10</v>
       </c>
@@ -7021,11 +7018,11 @@
       <c r="A276" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B276" s="11" t="s">
+      <c r="B276" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C276" s="12"/>
-      <c r="D276" s="13"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="10"/>
       <c r="E276" s="3" t="s">
         <v>7</v>
       </c>
@@ -7037,11 +7034,11 @@
       <c r="A277" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B277" s="8" t="s">
+      <c r="B277" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C277" s="9"/>
-      <c r="D277" s="10"/>
+      <c r="C277" s="6"/>
+      <c r="D277" s="7"/>
       <c r="E277" s="1" t="s">
         <v>10</v>
       </c>
@@ -7053,11 +7050,11 @@
       <c r="A278" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B278" s="11" t="s">
+      <c r="B278" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="C278" s="12"/>
-      <c r="D278" s="13"/>
+      <c r="C278" s="9"/>
+      <c r="D278" s="10"/>
       <c r="E278" s="3" t="s">
         <v>7</v>
       </c>
@@ -7069,11 +7066,11 @@
       <c r="A279" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B279" s="8" t="s">
+      <c r="B279" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C279" s="9"/>
-      <c r="D279" s="10"/>
+      <c r="C279" s="6"/>
+      <c r="D279" s="7"/>
       <c r="E279" s="1" t="s">
         <v>10</v>
       </c>
@@ -7085,11 +7082,11 @@
       <c r="A280" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B280" s="11" t="s">
+      <c r="B280" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C280" s="12"/>
-      <c r="D280" s="13"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="10"/>
       <c r="E280" s="3" t="s">
         <v>7</v>
       </c>
@@ -7101,11 +7098,11 @@
       <c r="A281" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B281" s="8" t="s">
+      <c r="B281" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C281" s="9"/>
-      <c r="D281" s="10"/>
+      <c r="C281" s="6"/>
+      <c r="D281" s="7"/>
       <c r="E281" s="1" t="s">
         <v>10</v>
       </c>
@@ -7117,11 +7114,11 @@
       <c r="A282" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B282" s="11" t="s">
+      <c r="B282" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="C282" s="12"/>
-      <c r="D282" s="13"/>
+      <c r="C282" s="9"/>
+      <c r="D282" s="10"/>
       <c r="E282" s="3" t="s">
         <v>7</v>
       </c>
@@ -7133,11 +7130,11 @@
       <c r="A283" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B283" s="8" t="s">
+      <c r="B283" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C283" s="9"/>
-      <c r="D283" s="10"/>
+      <c r="C283" s="6"/>
+      <c r="D283" s="7"/>
       <c r="E283" s="1" t="s">
         <v>10</v>
       </c>
@@ -7149,11 +7146,11 @@
       <c r="A284" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B284" s="11" t="s">
+      <c r="B284" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="C284" s="12"/>
-      <c r="D284" s="13"/>
+      <c r="C284" s="9"/>
+      <c r="D284" s="10"/>
       <c r="E284" s="3" t="s">
         <v>7</v>
       </c>
@@ -7165,11 +7162,11 @@
       <c r="A285" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="B285" s="8" t="s">
+      <c r="B285" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C285" s="9"/>
-      <c r="D285" s="10"/>
+      <c r="C285" s="6"/>
+      <c r="D285" s="7"/>
       <c r="E285" s="1" t="s">
         <v>10</v>
       </c>
@@ -7181,11 +7178,11 @@
       <c r="A286" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B286" s="11" t="s">
+      <c r="B286" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C286" s="12"/>
-      <c r="D286" s="13"/>
+      <c r="C286" s="9"/>
+      <c r="D286" s="10"/>
       <c r="E286" s="3" t="s">
         <v>7</v>
       </c>
@@ -7197,11 +7194,11 @@
       <c r="A287" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B287" s="8" t="s">
+      <c r="B287" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C287" s="9"/>
-      <c r="D287" s="10"/>
+      <c r="C287" s="6"/>
+      <c r="D287" s="7"/>
       <c r="E287" s="1" t="s">
         <v>111</v>
       </c>
@@ -7213,11 +7210,11 @@
       <c r="A288" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B288" s="8" t="s">
+      <c r="B288" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C288" s="9"/>
-      <c r="D288" s="10"/>
+      <c r="C288" s="6"/>
+      <c r="D288" s="7"/>
       <c r="E288" s="1" t="s">
         <v>230</v>
       </c>
@@ -7229,11 +7226,11 @@
       <c r="A289" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B289" s="8" t="s">
+      <c r="B289" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="C289" s="9"/>
-      <c r="D289" s="10"/>
+      <c r="C289" s="6"/>
+      <c r="D289" s="7"/>
       <c r="E289" s="1" t="s">
         <v>10</v>
       </c>
@@ -7245,11 +7242,11 @@
       <c r="A290" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B290" s="11" t="s">
+      <c r="B290" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="C290" s="12"/>
-      <c r="D290" s="13"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="10"/>
       <c r="E290" s="3" t="s">
         <v>7</v>
       </c>
@@ -7261,11 +7258,11 @@
       <c r="A291" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B291" s="8" t="s">
+      <c r="B291" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C291" s="9"/>
-      <c r="D291" s="10"/>
+      <c r="C291" s="6"/>
+      <c r="D291" s="7"/>
       <c r="E291" s="1" t="s">
         <v>313</v>
       </c>
@@ -7277,11 +7274,11 @@
       <c r="A292" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="B292" s="8" t="s">
+      <c r="B292" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C292" s="9"/>
-      <c r="D292" s="10"/>
+      <c r="C292" s="6"/>
+      <c r="D292" s="7"/>
       <c r="E292" s="1" t="s">
         <v>10</v>
       </c>
@@ -7293,11 +7290,11 @@
       <c r="A293" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B293" s="11" t="s">
+      <c r="B293" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="C293" s="12"/>
-      <c r="D293" s="13"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="10"/>
       <c r="E293" s="3" t="s">
         <v>7</v>
       </c>
@@ -7309,11 +7306,11 @@
       <c r="A294" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B294" s="8" t="s">
+      <c r="B294" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C294" s="9"/>
-      <c r="D294" s="10"/>
+      <c r="C294" s="6"/>
+      <c r="D294" s="7"/>
       <c r="E294" s="1" t="s">
         <v>5</v>
       </c>
@@ -7325,11 +7322,11 @@
       <c r="A295" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B295" s="8" t="s">
+      <c r="B295" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C295" s="9"/>
-      <c r="D295" s="10"/>
+      <c r="C295" s="6"/>
+      <c r="D295" s="7"/>
       <c r="E295" s="1" t="s">
         <v>10</v>
       </c>
@@ -7341,11 +7338,11 @@
       <c r="A296" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B296" s="8" t="s">
+      <c r="B296" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C296" s="9"/>
-      <c r="D296" s="10"/>
+      <c r="C296" s="6"/>
+      <c r="D296" s="7"/>
       <c r="E296" s="1" t="s">
         <v>285</v>
       </c>
@@ -7357,11 +7354,11 @@
       <c r="A297" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B297" s="11" t="s">
+      <c r="B297" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C297" s="12"/>
-      <c r="D297" s="13"/>
+      <c r="C297" s="9"/>
+      <c r="D297" s="10"/>
       <c r="E297" s="3" t="s">
         <v>7</v>
       </c>
@@ -7373,11 +7370,11 @@
       <c r="A298" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B298" s="8" t="s">
+      <c r="B298" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C298" s="9"/>
-      <c r="D298" s="10"/>
+      <c r="C298" s="6"/>
+      <c r="D298" s="7"/>
       <c r="E298" s="1" t="s">
         <v>111</v>
       </c>
@@ -7389,11 +7386,11 @@
       <c r="A299" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B299" s="8" t="s">
+      <c r="B299" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="C299" s="9"/>
-      <c r="D299" s="10"/>
+      <c r="C299" s="6"/>
+      <c r="D299" s="7"/>
       <c r="E299" s="1" t="s">
         <v>10</v>
       </c>
@@ -7405,11 +7402,11 @@
       <c r="A300" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B300" s="11" t="s">
+      <c r="B300" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="C300" s="12"/>
-      <c r="D300" s="13"/>
+      <c r="C300" s="9"/>
+      <c r="D300" s="10"/>
       <c r="E300" s="3" t="s">
         <v>7</v>
       </c>
@@ -7421,11 +7418,11 @@
       <c r="A301" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B301" s="8" t="s">
+      <c r="B301" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C301" s="9"/>
-      <c r="D301" s="10"/>
+      <c r="C301" s="6"/>
+      <c r="D301" s="7"/>
       <c r="E301" s="1" t="s">
         <v>66</v>
       </c>
@@ -7437,11 +7434,11 @@
       <c r="A302" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B302" s="8" t="s">
+      <c r="B302" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C302" s="9"/>
-      <c r="D302" s="10"/>
+      <c r="C302" s="6"/>
+      <c r="D302" s="7"/>
       <c r="E302" s="1" t="s">
         <v>218</v>
       </c>
@@ -7453,11 +7450,11 @@
       <c r="A303" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B303" s="8" t="s">
+      <c r="B303" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C303" s="9"/>
-      <c r="D303" s="10"/>
+      <c r="C303" s="6"/>
+      <c r="D303" s="7"/>
       <c r="E303" s="1" t="s">
         <v>320</v>
       </c>
@@ -7469,11 +7466,11 @@
       <c r="A304" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B304" s="8" t="s">
+      <c r="B304" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="C304" s="9"/>
-      <c r="D304" s="10"/>
+      <c r="C304" s="6"/>
+      <c r="D304" s="7"/>
       <c r="E304" s="1" t="s">
         <v>10</v>
       </c>
@@ -7485,11 +7482,11 @@
       <c r="A305" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B305" s="11" t="s">
+      <c r="B305" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="C305" s="12"/>
-      <c r="D305" s="13"/>
+      <c r="C305" s="9"/>
+      <c r="D305" s="10"/>
       <c r="E305" s="3" t="s">
         <v>7</v>
       </c>
@@ -7501,11 +7498,11 @@
       <c r="A306" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B306" s="8" t="s">
+      <c r="B306" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C306" s="9"/>
-      <c r="D306" s="10"/>
+      <c r="C306" s="6"/>
+      <c r="D306" s="7"/>
       <c r="E306" s="1" t="s">
         <v>323</v>
       </c>
@@ -7517,11 +7514,11 @@
       <c r="A307" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B307" s="8" t="s">
+      <c r="B307" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C307" s="9"/>
-      <c r="D307" s="10"/>
+      <c r="C307" s="6"/>
+      <c r="D307" s="7"/>
       <c r="E307" s="1" t="s">
         <v>218</v>
       </c>
@@ -7533,11 +7530,11 @@
       <c r="A308" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B308" s="8" t="s">
+      <c r="B308" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C308" s="9"/>
-      <c r="D308" s="10"/>
+      <c r="C308" s="6"/>
+      <c r="D308" s="7"/>
       <c r="E308" s="1" t="s">
         <v>10</v>
       </c>
@@ -7549,11 +7546,11 @@
       <c r="A309" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B309" s="11" t="s">
+      <c r="B309" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="C309" s="12"/>
-      <c r="D309" s="13"/>
+      <c r="C309" s="9"/>
+      <c r="D309" s="10"/>
       <c r="E309" s="3" t="s">
         <v>7</v>
       </c>
@@ -7565,11 +7562,11 @@
       <c r="A310" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B310" s="8" t="s">
+      <c r="B310" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="C310" s="9"/>
-      <c r="D310" s="10"/>
+      <c r="C310" s="6"/>
+      <c r="D310" s="7"/>
       <c r="E310" s="1" t="s">
         <v>10</v>
       </c>
@@ -7581,11 +7578,11 @@
       <c r="A311" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B311" s="11" t="s">
+      <c r="B311" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="C311" s="12"/>
-      <c r="D311" s="13"/>
+      <c r="C311" s="9"/>
+      <c r="D311" s="10"/>
       <c r="E311" s="3" t="s">
         <v>7</v>
       </c>
@@ -7597,11 +7594,11 @@
       <c r="A312" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B312" s="8" t="s">
+      <c r="B312" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C312" s="9"/>
-      <c r="D312" s="10"/>
+      <c r="C312" s="6"/>
+      <c r="D312" s="7"/>
       <c r="E312" s="1" t="s">
         <v>111</v>
       </c>
@@ -7613,11 +7610,11 @@
       <c r="A313" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B313" s="11" t="s">
+      <c r="B313" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C313" s="12"/>
-      <c r="D313" s="13"/>
+      <c r="C313" s="9"/>
+      <c r="D313" s="10"/>
       <c r="E313" s="3" t="s">
         <v>7</v>
       </c>
@@ -7629,11 +7626,11 @@
       <c r="A314" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B314" s="8" t="s">
+      <c r="B314" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="C314" s="9"/>
-      <c r="D314" s="10"/>
+      <c r="C314" s="6"/>
+      <c r="D314" s="7"/>
       <c r="E314" s="1" t="s">
         <v>10</v>
       </c>
@@ -7645,11 +7642,11 @@
       <c r="A315" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="B315" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C315" s="12"/>
-      <c r="D315" s="13"/>
+      <c r="C315" s="9"/>
+      <c r="D315" s="10"/>
       <c r="E315" s="3" t="s">
         <v>7</v>
       </c>
@@ -7661,11 +7658,11 @@
       <c r="A316" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B316" s="8" t="s">
+      <c r="B316" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="C316" s="9"/>
-      <c r="D316" s="10"/>
+      <c r="C316" s="6"/>
+      <c r="D316" s="7"/>
       <c r="E316" s="1" t="s">
         <v>10</v>
       </c>
@@ -7677,11 +7674,11 @@
       <c r="A317" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B317" s="11" t="s">
+      <c r="B317" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="C317" s="12"/>
-      <c r="D317" s="13"/>
+      <c r="C317" s="9"/>
+      <c r="D317" s="10"/>
       <c r="E317" s="3" t="s">
         <v>7</v>
       </c>
@@ -7693,11 +7690,11 @@
       <c r="A318" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B318" s="8" t="s">
+      <c r="B318" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C318" s="9"/>
-      <c r="D318" s="10"/>
+      <c r="C318" s="6"/>
+      <c r="D318" s="7"/>
       <c r="E318" s="1" t="s">
         <v>111</v>
       </c>
@@ -7709,11 +7706,11 @@
       <c r="A319" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B319" s="8" t="s">
+      <c r="B319" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C319" s="9"/>
-      <c r="D319" s="10"/>
+      <c r="C319" s="6"/>
+      <c r="D319" s="7"/>
       <c r="E319" s="1" t="s">
         <v>10</v>
       </c>
@@ -7725,11 +7722,11 @@
       <c r="A320" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="B320" s="11" t="s">
+      <c r="B320" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C320" s="12"/>
-      <c r="D320" s="13"/>
+      <c r="C320" s="9"/>
+      <c r="D320" s="10"/>
       <c r="E320" s="3" t="s">
         <v>7</v>
       </c>
@@ -7741,11 +7738,11 @@
       <c r="A321" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B321" s="8" t="s">
+      <c r="B321" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C321" s="9"/>
-      <c r="D321" s="10"/>
+      <c r="C321" s="6"/>
+      <c r="D321" s="7"/>
       <c r="E321" s="1" t="s">
         <v>111</v>
       </c>
@@ -7757,11 +7754,11 @@
       <c r="A322" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B322" s="11" t="s">
+      <c r="B322" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C322" s="12"/>
-      <c r="D322" s="13"/>
+      <c r="C322" s="9"/>
+      <c r="D322" s="10"/>
       <c r="E322" s="3" t="s">
         <v>7</v>
       </c>
@@ -7773,11 +7770,11 @@
       <c r="A323" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B323" s="8" t="s">
+      <c r="B323" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="C323" s="9"/>
-      <c r="D323" s="10"/>
+      <c r="C323" s="6"/>
+      <c r="D323" s="7"/>
       <c r="E323" s="1" t="s">
         <v>218</v>
       </c>
@@ -7789,11 +7786,11 @@
       <c r="A324" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B324" s="11" t="s">
+      <c r="B324" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="C324" s="12"/>
-      <c r="D324" s="13"/>
+      <c r="C324" s="9"/>
+      <c r="D324" s="10"/>
       <c r="E324" s="3" t="s">
         <v>7</v>
       </c>
@@ -7805,11 +7802,11 @@
       <c r="A325" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B325" s="8" t="s">
+      <c r="B325" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C325" s="9"/>
-      <c r="D325" s="10"/>
+      <c r="C325" s="6"/>
+      <c r="D325" s="7"/>
       <c r="E325" s="1" t="s">
         <v>111</v>
       </c>
@@ -7821,11 +7818,11 @@
       <c r="A326" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="B326" s="11" t="s">
+      <c r="B326" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C326" s="12"/>
-      <c r="D326" s="13"/>
+      <c r="C326" s="9"/>
+      <c r="D326" s="10"/>
       <c r="E326" s="3" t="s">
         <v>7</v>
       </c>
@@ -7837,11 +7834,11 @@
       <c r="A327" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="B327" s="8" t="s">
+      <c r="B327" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C327" s="9"/>
-      <c r="D327" s="10"/>
+      <c r="C327" s="6"/>
+      <c r="D327" s="7"/>
       <c r="E327" s="1" t="s">
         <v>342</v>
       </c>
@@ -7853,11 +7850,11 @@
       <c r="A328" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="B328" s="11" t="s">
+      <c r="B328" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="C328" s="12"/>
-      <c r="D328" s="13"/>
+      <c r="C328" s="9"/>
+      <c r="D328" s="10"/>
       <c r="E328" s="3" t="s">
         <v>7</v>
       </c>
@@ -7869,11 +7866,11 @@
       <c r="A329" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B329" s="8" t="s">
+      <c r="B329" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="C329" s="9"/>
-      <c r="D329" s="10"/>
+      <c r="C329" s="6"/>
+      <c r="D329" s="7"/>
       <c r="E329" s="1" t="s">
         <v>345</v>
       </c>
@@ -7885,11 +7882,11 @@
       <c r="A330" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B330" s="11" t="s">
+      <c r="B330" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="C330" s="12"/>
-      <c r="D330" s="13"/>
+      <c r="C330" s="9"/>
+      <c r="D330" s="10"/>
       <c r="E330" s="3" t="s">
         <v>7</v>
       </c>
@@ -7901,11 +7898,11 @@
       <c r="A331" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B331" s="8" t="s">
+      <c r="B331" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C331" s="9"/>
-      <c r="D331" s="10"/>
+      <c r="C331" s="6"/>
+      <c r="D331" s="7"/>
       <c r="E331" s="1" t="s">
         <v>348</v>
       </c>
@@ -7917,11 +7914,11 @@
       <c r="A332" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B332" s="8" t="s">
+      <c r="B332" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C332" s="9"/>
-      <c r="D332" s="10"/>
+      <c r="C332" s="6"/>
+      <c r="D332" s="7"/>
       <c r="E332" s="1" t="s">
         <v>218</v>
       </c>
@@ -7933,11 +7930,11 @@
       <c r="A333" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B333" s="11" t="s">
+      <c r="B333" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="C333" s="12"/>
-      <c r="D333" s="13"/>
+      <c r="C333" s="9"/>
+      <c r="D333" s="10"/>
       <c r="E333" s="3" t="s">
         <v>7</v>
       </c>
@@ -7949,11 +7946,11 @@
       <c r="A334" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B334" s="8" t="s">
+      <c r="B334" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="C334" s="9"/>
-      <c r="D334" s="10"/>
+      <c r="C334" s="6"/>
+      <c r="D334" s="7"/>
       <c r="E334" s="1" t="s">
         <v>205</v>
       </c>
@@ -7965,11 +7962,11 @@
       <c r="A335" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B335" s="11" t="s">
+      <c r="B335" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="C335" s="12"/>
-      <c r="D335" s="13"/>
+      <c r="C335" s="9"/>
+      <c r="D335" s="10"/>
       <c r="E335" s="3" t="s">
         <v>7</v>
       </c>
@@ -7981,11 +7978,11 @@
       <c r="A336" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B336" s="8" t="s">
+      <c r="B336" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C336" s="9"/>
-      <c r="D336" s="10"/>
+      <c r="C336" s="6"/>
+      <c r="D336" s="7"/>
       <c r="E336" s="1" t="s">
         <v>42</v>
       </c>
@@ -7997,11 +7994,11 @@
       <c r="A337" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B337" s="11" t="s">
+      <c r="B337" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="C337" s="12"/>
-      <c r="D337" s="13"/>
+      <c r="C337" s="9"/>
+      <c r="D337" s="10"/>
       <c r="E337" s="3" t="s">
         <v>7</v>
       </c>
@@ -8013,11 +8010,11 @@
       <c r="A338" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B338" s="8" t="s">
+      <c r="B338" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C338" s="9"/>
-      <c r="D338" s="10"/>
+      <c r="C338" s="6"/>
+      <c r="D338" s="7"/>
       <c r="E338" s="1" t="s">
         <v>355</v>
       </c>
@@ -8029,11 +8026,11 @@
       <c r="A339" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B339" s="8" t="s">
+      <c r="B339" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C339" s="9"/>
-      <c r="D339" s="10"/>
+      <c r="C339" s="6"/>
+      <c r="D339" s="7"/>
       <c r="E339" s="1" t="s">
         <v>182</v>
       </c>
@@ -8045,11 +8042,11 @@
       <c r="A340" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B340" s="11" t="s">
+      <c r="B340" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C340" s="12"/>
-      <c r="D340" s="13"/>
+      <c r="C340" s="9"/>
+      <c r="D340" s="10"/>
       <c r="E340" s="3" t="s">
         <v>7</v>
       </c>
@@ -8061,11 +8058,11 @@
       <c r="A341" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B341" s="8" t="s">
+      <c r="B341" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C341" s="9"/>
-      <c r="D341" s="10"/>
+      <c r="C341" s="6"/>
+      <c r="D341" s="7"/>
       <c r="E341" s="1" t="s">
         <v>111</v>
       </c>
@@ -8077,11 +8074,11 @@
       <c r="A342" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="B342" s="11" t="s">
+      <c r="B342" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C342" s="12"/>
-      <c r="D342" s="13"/>
+      <c r="C342" s="9"/>
+      <c r="D342" s="10"/>
       <c r="E342" s="3" t="s">
         <v>7</v>
       </c>
@@ -8093,11 +8090,11 @@
       <c r="A343" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B343" s="8" t="s">
+      <c r="B343" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C343" s="9"/>
-      <c r="D343" s="10"/>
+      <c r="C343" s="6"/>
+      <c r="D343" s="7"/>
       <c r="E343" s="1" t="s">
         <v>355</v>
       </c>
@@ -8109,11 +8106,11 @@
       <c r="A344" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B344" s="8" t="s">
+      <c r="B344" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C344" s="9"/>
-      <c r="D344" s="10"/>
+      <c r="C344" s="6"/>
+      <c r="D344" s="7"/>
       <c r="E344" s="1" t="s">
         <v>182</v>
       </c>
@@ -8125,11 +8122,11 @@
       <c r="A345" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="B345" s="8" t="s">
+      <c r="B345" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C345" s="9"/>
-      <c r="D345" s="10"/>
+      <c r="C345" s="6"/>
+      <c r="D345" s="7"/>
       <c r="E345" s="1" t="s">
         <v>360</v>
       </c>
@@ -8141,11 +8138,11 @@
       <c r="A346" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="B346" s="11" t="s">
+      <c r="B346" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C346" s="12"/>
-      <c r="D346" s="13"/>
+      <c r="C346" s="9"/>
+      <c r="D346" s="10"/>
       <c r="E346" s="3" t="s">
         <v>7</v>
       </c>
@@ -8157,11 +8154,11 @@
       <c r="A347" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B347" s="8" t="s">
+      <c r="B347" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C347" s="9"/>
-      <c r="D347" s="10"/>
+      <c r="C347" s="6"/>
+      <c r="D347" s="7"/>
       <c r="E347" s="1" t="s">
         <v>272</v>
       </c>
@@ -8173,11 +8170,11 @@
       <c r="A348" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B348" s="8" t="s">
+      <c r="B348" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C348" s="9"/>
-      <c r="D348" s="10"/>
+      <c r="C348" s="6"/>
+      <c r="D348" s="7"/>
       <c r="E348" s="1" t="s">
         <v>363</v>
       </c>
@@ -8189,11 +8186,11 @@
       <c r="A349" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B349" s="8" t="s">
+      <c r="B349" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="C349" s="9"/>
-      <c r="D349" s="10"/>
+      <c r="C349" s="6"/>
+      <c r="D349" s="7"/>
       <c r="E349" s="1" t="s">
         <v>364</v>
       </c>
@@ -8205,11 +8202,11 @@
       <c r="A350" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="B350" s="11" t="s">
+      <c r="B350" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="C350" s="12"/>
-      <c r="D350" s="13"/>
+      <c r="C350" s="9"/>
+      <c r="D350" s="10"/>
       <c r="E350" s="3" t="s">
         <v>7</v>
       </c>
@@ -8221,11 +8218,11 @@
       <c r="A351" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B351" s="8" t="s">
+      <c r="B351" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C351" s="9"/>
-      <c r="D351" s="10"/>
+      <c r="C351" s="6"/>
+      <c r="D351" s="7"/>
       <c r="E351" s="1" t="s">
         <v>367</v>
       </c>
@@ -8237,11 +8234,11 @@
       <c r="A352" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B352" s="8" t="s">
+      <c r="B352" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C352" s="9"/>
-      <c r="D352" s="10"/>
+      <c r="C352" s="6"/>
+      <c r="D352" s="7"/>
       <c r="E352" s="1" t="s">
         <v>205</v>
       </c>
@@ -8253,11 +8250,11 @@
       <c r="A353" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B353" s="11" t="s">
+      <c r="B353" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="C353" s="12"/>
-      <c r="D353" s="13"/>
+      <c r="C353" s="9"/>
+      <c r="D353" s="10"/>
       <c r="E353" s="3" t="s">
         <v>7</v>
       </c>
@@ -8269,11 +8266,11 @@
       <c r="A354" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B354" s="8" t="s">
+      <c r="B354" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C354" s="9"/>
-      <c r="D354" s="10"/>
+      <c r="C354" s="6"/>
+      <c r="D354" s="7"/>
       <c r="E354" s="1" t="s">
         <v>227</v>
       </c>
@@ -8285,11 +8282,11 @@
       <c r="A355" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B355" s="8" t="s">
+      <c r="B355" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C355" s="9"/>
-      <c r="D355" s="10"/>
+      <c r="C355" s="6"/>
+      <c r="D355" s="7"/>
       <c r="E355" s="1" t="s">
         <v>263</v>
       </c>
@@ -8301,11 +8298,11 @@
       <c r="A356" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B356" s="8" t="s">
+      <c r="B356" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C356" s="9"/>
-      <c r="D356" s="10"/>
+      <c r="C356" s="6"/>
+      <c r="D356" s="7"/>
       <c r="E356" s="1" t="s">
         <v>42</v>
       </c>
@@ -8317,11 +8314,11 @@
       <c r="A357" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="B357" s="11" t="s">
+      <c r="B357" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="C357" s="12"/>
-      <c r="D357" s="13"/>
+      <c r="C357" s="9"/>
+      <c r="D357" s="10"/>
       <c r="E357" s="3" t="s">
         <v>7</v>
       </c>
@@ -8333,11 +8330,11 @@
       <c r="A358" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B358" s="8" t="s">
+      <c r="B358" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C358" s="9"/>
-      <c r="D358" s="10"/>
+      <c r="C358" s="6"/>
+      <c r="D358" s="7"/>
       <c r="E358" s="1" t="s">
         <v>227</v>
       </c>
@@ -8349,11 +8346,11 @@
       <c r="A359" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B359" s="8" t="s">
+      <c r="B359" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C359" s="9"/>
-      <c r="D359" s="10"/>
+      <c r="C359" s="6"/>
+      <c r="D359" s="7"/>
       <c r="E359" s="1" t="s">
         <v>372</v>
       </c>
@@ -8365,11 +8362,11 @@
       <c r="A360" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B360" s="8" t="s">
+      <c r="B360" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C360" s="9"/>
-      <c r="D360" s="10"/>
+      <c r="C360" s="6"/>
+      <c r="D360" s="7"/>
       <c r="E360" s="1" t="s">
         <v>373</v>
       </c>
@@ -8381,11 +8378,11 @@
       <c r="A361" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B361" s="8" t="s">
+      <c r="B361" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="C361" s="9"/>
-      <c r="D361" s="10"/>
+      <c r="C361" s="6"/>
+      <c r="D361" s="7"/>
       <c r="E361" s="1" t="s">
         <v>374</v>
       </c>
@@ -8397,11 +8394,11 @@
       <c r="A362" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="B362" s="11" t="s">
+      <c r="B362" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C362" s="12"/>
-      <c r="D362" s="13"/>
+      <c r="C362" s="9"/>
+      <c r="D362" s="10"/>
       <c r="E362" s="3" t="s">
         <v>7</v>
       </c>
@@ -8413,11 +8410,11 @@
       <c r="A363" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B363" s="8" t="s">
+      <c r="B363" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C363" s="9"/>
-      <c r="D363" s="10"/>
+      <c r="C363" s="6"/>
+      <c r="D363" s="7"/>
       <c r="E363" s="1" t="s">
         <v>377</v>
       </c>
@@ -8429,11 +8426,11 @@
       <c r="A364" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="B364" s="8" t="s">
+      <c r="B364" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C364" s="9"/>
-      <c r="D364" s="10"/>
+      <c r="C364" s="6"/>
+      <c r="D364" s="7"/>
       <c r="E364" s="1" t="s">
         <v>42</v>
       </c>
@@ -8445,11 +8442,11 @@
       <c r="A365" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B365" s="11" t="s">
+      <c r="B365" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="C365" s="12"/>
-      <c r="D365" s="13"/>
+      <c r="C365" s="9"/>
+      <c r="D365" s="10"/>
       <c r="E365" s="3" t="s">
         <v>7</v>
       </c>
@@ -8461,11 +8458,11 @@
       <c r="A366" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B366" s="8" t="s">
+      <c r="B366" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C366" s="9"/>
-      <c r="D366" s="10"/>
+      <c r="C366" s="6"/>
+      <c r="D366" s="7"/>
       <c r="E366" s="1" t="s">
         <v>380</v>
       </c>
@@ -8477,11 +8474,11 @@
       <c r="A367" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="B367" s="8" t="s">
+      <c r="B367" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C367" s="9"/>
-      <c r="D367" s="10"/>
+      <c r="C367" s="6"/>
+      <c r="D367" s="7"/>
       <c r="E367" s="1" t="s">
         <v>42</v>
       </c>
@@ -8493,11 +8490,11 @@
       <c r="A368" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B368" s="11" t="s">
+      <c r="B368" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C368" s="12"/>
-      <c r="D368" s="13"/>
+      <c r="C368" s="9"/>
+      <c r="D368" s="10"/>
       <c r="E368" s="3" t="s">
         <v>7</v>
       </c>
@@ -8509,11 +8506,11 @@
       <c r="A369" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="B369" s="8" t="s">
+      <c r="B369" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C369" s="9"/>
-      <c r="D369" s="10"/>
+      <c r="C369" s="6"/>
+      <c r="D369" s="7"/>
       <c r="E369" s="1" t="s">
         <v>10</v>
       </c>
@@ -8525,11 +8522,11 @@
       <c r="A370" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="B370" s="11" t="s">
+      <c r="B370" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="C370" s="12"/>
-      <c r="D370" s="13"/>
+      <c r="C370" s="9"/>
+      <c r="D370" s="10"/>
       <c r="E370" s="3" t="s">
         <v>7</v>
       </c>
@@ -8541,11 +8538,11 @@
       <c r="A371" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="B371" s="8" t="s">
+      <c r="B371" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C371" s="9"/>
-      <c r="D371" s="10"/>
+      <c r="C371" s="6"/>
+      <c r="D371" s="7"/>
       <c r="E371" s="1" t="s">
         <v>385</v>
       </c>
@@ -8557,11 +8554,11 @@
       <c r="A372" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="B372" s="11" t="s">
+      <c r="B372" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="C372" s="12"/>
-      <c r="D372" s="13"/>
+      <c r="C372" s="9"/>
+      <c r="D372" s="10"/>
       <c r="E372" s="3" t="s">
         <v>7</v>
       </c>
@@ -8573,11 +8570,11 @@
       <c r="A373" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B373" s="8" t="s">
+      <c r="B373" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C373" s="9"/>
-      <c r="D373" s="10"/>
+      <c r="C373" s="6"/>
+      <c r="D373" s="7"/>
       <c r="E373" s="1" t="s">
         <v>158</v>
       </c>
@@ -8589,11 +8586,11 @@
       <c r="A374" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B374" s="8" t="s">
+      <c r="B374" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C374" s="9"/>
-      <c r="D374" s="10"/>
+      <c r="C374" s="6"/>
+      <c r="D374" s="7"/>
       <c r="E374" s="1" t="s">
         <v>388</v>
       </c>
@@ -8605,11 +8602,11 @@
       <c r="A375" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="B375" s="8" t="s">
+      <c r="B375" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C375" s="9"/>
-      <c r="D375" s="10"/>
+      <c r="C375" s="6"/>
+      <c r="D375" s="7"/>
       <c r="E375" s="1" t="s">
         <v>389</v>
       </c>
@@ -8621,11 +8618,11 @@
       <c r="A376" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B376" s="11" t="s">
+      <c r="B376" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C376" s="12"/>
-      <c r="D376" s="13"/>
+      <c r="C376" s="9"/>
+      <c r="D376" s="10"/>
       <c r="E376" s="3" t="s">
         <v>7</v>
       </c>
@@ -8637,11 +8634,11 @@
       <c r="A377" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="B377" s="8" t="s">
+      <c r="B377" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="C377" s="9"/>
-      <c r="D377" s="10"/>
+      <c r="C377" s="6"/>
+      <c r="D377" s="7"/>
       <c r="E377" s="1" t="s">
         <v>392</v>
       </c>
@@ -8653,11 +8650,11 @@
       <c r="A378" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="B378" s="11" t="s">
+      <c r="B378" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C378" s="12"/>
-      <c r="D378" s="13"/>
+      <c r="C378" s="9"/>
+      <c r="D378" s="10"/>
       <c r="E378" s="3" t="s">
         <v>7</v>
       </c>
@@ -8669,11 +8666,11 @@
       <c r="A379" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B379" s="8" t="s">
+      <c r="B379" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="C379" s="9"/>
-      <c r="D379" s="10"/>
+      <c r="C379" s="6"/>
+      <c r="D379" s="7"/>
       <c r="E379" s="1" t="s">
         <v>395</v>
       </c>
@@ -8685,11 +8682,11 @@
       <c r="A380" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="B380" s="11" t="s">
+      <c r="B380" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="C380" s="12"/>
-      <c r="D380" s="13"/>
+      <c r="C380" s="9"/>
+      <c r="D380" s="10"/>
       <c r="E380" s="3" t="s">
         <v>7</v>
       </c>
@@ -8701,11 +8698,11 @@
       <c r="A381" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="B381" s="8" t="s">
+      <c r="B381" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="C381" s="9"/>
-      <c r="D381" s="10"/>
+      <c r="C381" s="6"/>
+      <c r="D381" s="7"/>
       <c r="E381" s="1" t="s">
         <v>398</v>
       </c>
@@ -8717,11 +8714,11 @@
       <c r="A382" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B382" s="11" t="s">
+      <c r="B382" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C382" s="12"/>
-      <c r="D382" s="13"/>
+      <c r="C382" s="9"/>
+      <c r="D382" s="10"/>
       <c r="E382" s="3" t="s">
         <v>7</v>
       </c>
@@ -8733,11 +8730,11 @@
       <c r="A383" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B383" s="8" t="s">
+      <c r="B383" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="C383" s="9"/>
-      <c r="D383" s="10"/>
+      <c r="C383" s="6"/>
+      <c r="D383" s="7"/>
       <c r="E383" s="1" t="s">
         <v>401</v>
       </c>
@@ -8749,11 +8746,11 @@
       <c r="A384" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="B384" s="11" t="s">
+      <c r="B384" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C384" s="12"/>
-      <c r="D384" s="13"/>
+      <c r="C384" s="9"/>
+      <c r="D384" s="10"/>
       <c r="E384" s="3" t="s">
         <v>7</v>
       </c>
@@ -8765,11 +8762,11 @@
       <c r="A385" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="B385" s="8" t="s">
+      <c r="B385" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="C385" s="9"/>
-      <c r="D385" s="10"/>
+      <c r="C385" s="6"/>
+      <c r="D385" s="7"/>
       <c r="E385" s="1" t="s">
         <v>404</v>
       </c>
@@ -8781,11 +8778,11 @@
       <c r="A386" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B386" s="11" t="s">
+      <c r="B386" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="C386" s="12"/>
-      <c r="D386" s="13"/>
+      <c r="C386" s="9"/>
+      <c r="D386" s="10"/>
       <c r="E386" s="3" t="s">
         <v>7</v>
       </c>
@@ -8797,11 +8794,11 @@
       <c r="A387" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="B387" s="8" t="s">
+      <c r="B387" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="C387" s="9"/>
-      <c r="D387" s="10"/>
+      <c r="C387" s="6"/>
+      <c r="D387" s="7"/>
       <c r="E387" s="1" t="s">
         <v>389</v>
       </c>
@@ -8813,11 +8810,11 @@
       <c r="A388" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="B388" s="11" t="s">
+      <c r="B388" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="C388" s="12"/>
-      <c r="D388" s="13"/>
+      <c r="C388" s="9"/>
+      <c r="D388" s="10"/>
       <c r="E388" s="3" t="s">
         <v>7</v>
       </c>
@@ -8829,11 +8826,11 @@
       <c r="A389" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="B389" s="8" t="s">
+      <c r="B389" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C389" s="9"/>
-      <c r="D389" s="10"/>
+      <c r="C389" s="6"/>
+      <c r="D389" s="7"/>
       <c r="E389" s="1" t="s">
         <v>409</v>
       </c>
@@ -8845,11 +8842,11 @@
       <c r="A390" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B390" s="11" t="s">
+      <c r="B390" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="C390" s="12"/>
-      <c r="D390" s="13"/>
+      <c r="C390" s="9"/>
+      <c r="D390" s="10"/>
       <c r="E390" s="3" t="s">
         <v>7</v>
       </c>
@@ -8861,11 +8858,11 @@
       <c r="A391" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="B391" s="8" t="s">
+      <c r="B391" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C391" s="9"/>
-      <c r="D391" s="10"/>
+      <c r="C391" s="6"/>
+      <c r="D391" s="7"/>
       <c r="E391" s="1" t="s">
         <v>10</v>
       </c>
@@ -8877,11 +8874,11 @@
       <c r="A392" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B392" s="11" t="s">
+      <c r="B392" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="C392" s="12"/>
-      <c r="D392" s="13"/>
+      <c r="C392" s="9"/>
+      <c r="D392" s="10"/>
       <c r="E392" s="3" t="s">
         <v>7</v>
       </c>
@@ -8893,11 +8890,11 @@
       <c r="A393" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B393" s="8" t="s">
+      <c r="B393" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="C393" s="9"/>
-      <c r="D393" s="10"/>
+      <c r="C393" s="6"/>
+      <c r="D393" s="7"/>
       <c r="E393" s="1" t="s">
         <v>414</v>
       </c>
@@ -8909,11 +8906,11 @@
       <c r="A394" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B394" s="11" t="s">
+      <c r="B394" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="C394" s="12"/>
-      <c r="D394" s="13"/>
+      <c r="C394" s="9"/>
+      <c r="D394" s="10"/>
       <c r="E394" s="3" t="s">
         <v>7</v>
       </c>
@@ -8925,11 +8922,11 @@
       <c r="A395" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B395" s="8" t="s">
+      <c r="B395" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C395" s="9"/>
-      <c r="D395" s="10"/>
+      <c r="C395" s="6"/>
+      <c r="D395" s="7"/>
       <c r="E395" s="1" t="s">
         <v>417</v>
       </c>
@@ -8941,11 +8938,11 @@
       <c r="A396" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B396" s="11" t="s">
+      <c r="B396" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="C396" s="12"/>
-      <c r="D396" s="13"/>
+      <c r="C396" s="9"/>
+      <c r="D396" s="10"/>
       <c r="E396" s="3" t="s">
         <v>7</v>
       </c>
@@ -8957,11 +8954,11 @@
       <c r="A397" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="B397" s="8" t="s">
+      <c r="B397" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="C397" s="9"/>
-      <c r="D397" s="10"/>
+      <c r="C397" s="6"/>
+      <c r="D397" s="7"/>
       <c r="E397" s="1" t="s">
         <v>420</v>
       </c>
@@ -8973,11 +8970,11 @@
       <c r="A398" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B398" s="11" t="s">
+      <c r="B398" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="C398" s="12"/>
-      <c r="D398" s="13"/>
+      <c r="C398" s="9"/>
+      <c r="D398" s="10"/>
       <c r="E398" s="3" t="s">
         <v>7</v>
       </c>
@@ -8989,11 +8986,11 @@
       <c r="A399" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B399" s="8" t="s">
+      <c r="B399" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C399" s="9"/>
-      <c r="D399" s="10"/>
+      <c r="C399" s="6"/>
+      <c r="D399" s="7"/>
       <c r="E399" s="1" t="s">
         <v>423</v>
       </c>
@@ -9005,11 +9002,11 @@
       <c r="A400" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B400" s="8" t="s">
+      <c r="B400" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="C400" s="9"/>
-      <c r="D400" s="10"/>
+      <c r="C400" s="6"/>
+      <c r="D400" s="7"/>
       <c r="E400" s="1" t="s">
         <v>424</v>
       </c>
@@ -9021,11 +9018,11 @@
       <c r="A401" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B401" s="11" t="s">
+      <c r="B401" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="C401" s="12"/>
-      <c r="D401" s="13"/>
+      <c r="C401" s="9"/>
+      <c r="D401" s="10"/>
       <c r="E401" s="3" t="s">
         <v>7</v>
       </c>
@@ -9037,11 +9034,11 @@
       <c r="A402" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B402" s="8" t="s">
+      <c r="B402" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C402" s="9"/>
-      <c r="D402" s="10"/>
+      <c r="C402" s="6"/>
+      <c r="D402" s="7"/>
       <c r="E402" s="1" t="s">
         <v>427</v>
       </c>
@@ -9053,11 +9050,11 @@
       <c r="A403" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="B403" s="11" t="s">
+      <c r="B403" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C403" s="12"/>
-      <c r="D403" s="13"/>
+      <c r="C403" s="9"/>
+      <c r="D403" s="10"/>
       <c r="E403" s="3" t="s">
         <v>7</v>
       </c>
@@ -9069,11 +9066,11 @@
       <c r="A404" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="B404" s="8" t="s">
+      <c r="B404" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C404" s="9"/>
-      <c r="D404" s="10"/>
+      <c r="C404" s="6"/>
+      <c r="D404" s="7"/>
       <c r="E404" s="1" t="s">
         <v>389</v>
       </c>
@@ -9085,11 +9082,11 @@
       <c r="A405" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="B405" s="11" t="s">
+      <c r="B405" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="C405" s="12"/>
-      <c r="D405" s="13"/>
+      <c r="C405" s="9"/>
+      <c r="D405" s="10"/>
       <c r="E405" s="3" t="s">
         <v>7</v>
       </c>
@@ -9101,11 +9098,11 @@
       <c r="A406" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="B406" s="8" t="s">
+      <c r="B406" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="C406" s="9"/>
-      <c r="D406" s="10"/>
+      <c r="C406" s="6"/>
+      <c r="D406" s="7"/>
       <c r="E406" s="1" t="s">
         <v>427</v>
       </c>
@@ -9117,11 +9114,11 @@
       <c r="A407" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="B407" s="11" t="s">
+      <c r="B407" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="C407" s="12"/>
-      <c r="D407" s="13"/>
+      <c r="C407" s="9"/>
+      <c r="D407" s="10"/>
       <c r="E407" s="3" t="s">
         <v>7</v>
       </c>
@@ -9133,11 +9130,11 @@
       <c r="A408" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B408" s="8" t="s">
+      <c r="B408" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="C408" s="9"/>
-      <c r="D408" s="10"/>
+      <c r="C408" s="6"/>
+      <c r="D408" s="7"/>
       <c r="E408" s="1" t="s">
         <v>389</v>
       </c>
@@ -9149,11 +9146,11 @@
       <c r="A409" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="B409" s="11" t="s">
+      <c r="B409" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="C409" s="12"/>
-      <c r="D409" s="13"/>
+      <c r="C409" s="9"/>
+      <c r="D409" s="10"/>
       <c r="E409" s="3" t="s">
         <v>7</v>
       </c>
@@ -9165,11 +9162,11 @@
       <c r="A410" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B410" s="8" t="s">
+      <c r="B410" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C410" s="9"/>
-      <c r="D410" s="10"/>
+      <c r="C410" s="6"/>
+      <c r="D410" s="7"/>
       <c r="E410" s="1" t="s">
         <v>5</v>
       </c>
@@ -9181,11 +9178,11 @@
       <c r="A411" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B411" s="8" t="s">
+      <c r="B411" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C411" s="9"/>
-      <c r="D411" s="10"/>
+      <c r="C411" s="6"/>
+      <c r="D411" s="7"/>
       <c r="E411" s="1" t="s">
         <v>436</v>
       </c>
@@ -9197,11 +9194,11 @@
       <c r="A412" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B412" s="8" t="s">
+      <c r="B412" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C412" s="9"/>
-      <c r="D412" s="10"/>
+      <c r="C412" s="6"/>
+      <c r="D412" s="7"/>
       <c r="E412" s="1" t="s">
         <v>437</v>
       </c>
@@ -9213,11 +9210,11 @@
       <c r="A413" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B413" s="8" t="s">
+      <c r="B413" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C413" s="9"/>
-      <c r="D413" s="10"/>
+      <c r="C413" s="6"/>
+      <c r="D413" s="7"/>
       <c r="E413" s="1" t="s">
         <v>438</v>
       </c>
@@ -9229,11 +9226,11 @@
       <c r="A414" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B414" s="8" t="s">
+      <c r="B414" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C414" s="9"/>
-      <c r="D414" s="10"/>
+      <c r="C414" s="6"/>
+      <c r="D414" s="7"/>
       <c r="E414" s="1" t="s">
         <v>439</v>
       </c>
@@ -9245,11 +9242,11 @@
       <c r="A415" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B415" s="8" t="s">
+      <c r="B415" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C415" s="9"/>
-      <c r="D415" s="10"/>
+      <c r="C415" s="6"/>
+      <c r="D415" s="7"/>
       <c r="E415" s="1" t="s">
         <v>440</v>
       </c>
@@ -9261,11 +9258,11 @@
       <c r="A416" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B416" s="8" t="s">
+      <c r="B416" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C416" s="9"/>
-      <c r="D416" s="10"/>
+      <c r="C416" s="6"/>
+      <c r="D416" s="7"/>
       <c r="E416" s="1" t="s">
         <v>441</v>
       </c>
@@ -9277,11 +9274,11 @@
       <c r="A417" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B417" s="8" t="s">
+      <c r="B417" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C417" s="9"/>
-      <c r="D417" s="10"/>
+      <c r="C417" s="6"/>
+      <c r="D417" s="7"/>
       <c r="E417" s="1" t="s">
         <v>442</v>
       </c>
@@ -9293,11 +9290,11 @@
       <c r="A418" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="B418" s="11" t="s">
+      <c r="B418" s="8" t="s">
         <v>435</v>
       </c>
-      <c r="C418" s="12"/>
-      <c r="D418" s="13"/>
+      <c r="C418" s="9"/>
+      <c r="D418" s="10"/>
       <c r="E418" s="3" t="s">
         <v>7</v>
       </c>
@@ -9309,11 +9306,11 @@
       <c r="A419" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B419" s="8" t="s">
+      <c r="B419" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C419" s="9"/>
-      <c r="D419" s="10"/>
+      <c r="C419" s="6"/>
+      <c r="D419" s="7"/>
       <c r="E419" s="1" t="s">
         <v>445</v>
       </c>
@@ -9325,11 +9322,11 @@
       <c r="A420" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B420" s="8" t="s">
+      <c r="B420" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C420" s="9"/>
-      <c r="D420" s="10"/>
+      <c r="C420" s="6"/>
+      <c r="D420" s="7"/>
       <c r="E420" s="1" t="s">
         <v>446</v>
       </c>
@@ -9341,11 +9338,11 @@
       <c r="A421" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B421" s="8" t="s">
+      <c r="B421" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C421" s="9"/>
-      <c r="D421" s="10"/>
+      <c r="C421" s="6"/>
+      <c r="D421" s="7"/>
       <c r="E421" s="1" t="s">
         <v>447</v>
       </c>
@@ -9357,11 +9354,11 @@
       <c r="A422" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="B422" s="8" t="s">
+      <c r="B422" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C422" s="9"/>
-      <c r="D422" s="10"/>
+      <c r="C422" s="6"/>
+      <c r="D422" s="7"/>
       <c r="E422" s="1" t="s">
         <v>448</v>
       </c>
@@ -9373,11 +9370,11 @@
       <c r="A423" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="B423" s="11" t="s">
+      <c r="B423" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="C423" s="12"/>
-      <c r="D423" s="13"/>
+      <c r="C423" s="9"/>
+      <c r="D423" s="10"/>
       <c r="E423" s="3" t="s">
         <v>7</v>
       </c>
@@ -9389,11 +9386,11 @@
       <c r="A424" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B424" s="8" t="s">
+      <c r="B424" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C424" s="9"/>
-      <c r="D424" s="10"/>
+      <c r="C424" s="6"/>
+      <c r="D424" s="7"/>
       <c r="E424" s="1" t="s">
         <v>451</v>
       </c>
@@ -9405,11 +9402,11 @@
       <c r="A425" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B425" s="11" t="s">
+      <c r="B425" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="C425" s="12"/>
-      <c r="D425" s="13"/>
+      <c r="C425" s="9"/>
+      <c r="D425" s="10"/>
       <c r="E425" s="3" t="s">
         <v>7</v>
       </c>
@@ -9421,11 +9418,11 @@
       <c r="A426" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="B426" s="8" t="s">
+      <c r="B426" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C426" s="9"/>
-      <c r="D426" s="10"/>
+      <c r="C426" s="6"/>
+      <c r="D426" s="7"/>
       <c r="E426" s="1" t="s">
         <v>454</v>
       </c>
@@ -9437,11 +9434,11 @@
       <c r="A427" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B427" s="11" t="s">
+      <c r="B427" s="8" t="s">
         <v>453</v>
       </c>
-      <c r="C427" s="12"/>
-      <c r="D427" s="13"/>
+      <c r="C427" s="9"/>
+      <c r="D427" s="10"/>
       <c r="E427" s="3" t="s">
         <v>7</v>
       </c>
@@ -9453,11 +9450,11 @@
       <c r="A428" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B428" s="8" t="s">
+      <c r="B428" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C428" s="9"/>
-      <c r="D428" s="10"/>
+      <c r="C428" s="6"/>
+      <c r="D428" s="7"/>
       <c r="E428" s="1" t="s">
         <v>427</v>
       </c>
@@ -9469,11 +9466,11 @@
       <c r="A429" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B429" s="8" t="s">
+      <c r="B429" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C429" s="9"/>
-      <c r="D429" s="10"/>
+      <c r="C429" s="6"/>
+      <c r="D429" s="7"/>
       <c r="E429" s="1" t="s">
         <v>237</v>
       </c>
@@ -9485,11 +9482,11 @@
       <c r="A430" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B430" s="8" t="s">
+      <c r="B430" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C430" s="9"/>
-      <c r="D430" s="10"/>
+      <c r="C430" s="6"/>
+      <c r="D430" s="7"/>
       <c r="E430" s="1" t="s">
         <v>277</v>
       </c>
@@ -9501,11 +9498,11 @@
       <c r="A431" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B431" s="8" t="s">
+      <c r="B431" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C431" s="9"/>
-      <c r="D431" s="10"/>
+      <c r="C431" s="6"/>
+      <c r="D431" s="7"/>
       <c r="E431" s="1" t="s">
         <v>185</v>
       </c>
@@ -9517,11 +9514,11 @@
       <c r="A432" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B432" s="8" t="s">
+      <c r="B432" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C432" s="9"/>
-      <c r="D432" s="10"/>
+      <c r="C432" s="6"/>
+      <c r="D432" s="7"/>
       <c r="E432" s="1" t="s">
         <v>186</v>
       </c>
@@ -9533,11 +9530,11 @@
       <c r="A433" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B433" s="8" t="s">
+      <c r="B433" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C433" s="9"/>
-      <c r="D433" s="10"/>
+      <c r="C433" s="6"/>
+      <c r="D433" s="7"/>
       <c r="E433" s="1" t="s">
         <v>208</v>
       </c>
@@ -9549,11 +9546,11 @@
       <c r="A434" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B434" s="8" t="s">
+      <c r="B434" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C434" s="9"/>
-      <c r="D434" s="10"/>
+      <c r="C434" s="6"/>
+      <c r="D434" s="7"/>
       <c r="E434" s="1" t="s">
         <v>348</v>
       </c>
@@ -9565,11 +9562,11 @@
       <c r="A435" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B435" s="8" t="s">
+      <c r="B435" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C435" s="9"/>
-      <c r="D435" s="10"/>
+      <c r="C435" s="6"/>
+      <c r="D435" s="7"/>
       <c r="E435" s="1" t="s">
         <v>272</v>
       </c>
@@ -9581,11 +9578,11 @@
       <c r="A436" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B436" s="8" t="s">
+      <c r="B436" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C436" s="9"/>
-      <c r="D436" s="10"/>
+      <c r="C436" s="6"/>
+      <c r="D436" s="7"/>
       <c r="E436" s="1" t="s">
         <v>323</v>
       </c>
@@ -9597,11 +9594,11 @@
       <c r="A437" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B437" s="8" t="s">
+      <c r="B437" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C437" s="9"/>
-      <c r="D437" s="10"/>
+      <c r="C437" s="6"/>
+      <c r="D437" s="7"/>
       <c r="E437" s="1" t="s">
         <v>187</v>
       </c>
@@ -9613,11 +9610,11 @@
       <c r="A438" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B438" s="8" t="s">
+      <c r="B438" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C438" s="9"/>
-      <c r="D438" s="10"/>
+      <c r="C438" s="6"/>
+      <c r="D438" s="7"/>
       <c r="E438" s="1" t="s">
         <v>404</v>
       </c>
@@ -9629,11 +9626,11 @@
       <c r="A439" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B439" s="8" t="s">
+      <c r="B439" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C439" s="9"/>
-      <c r="D439" s="10"/>
+      <c r="C439" s="6"/>
+      <c r="D439" s="7"/>
       <c r="E439" s="1" t="s">
         <v>423</v>
       </c>
@@ -9645,11 +9642,11 @@
       <c r="A440" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B440" s="8" t="s">
+      <c r="B440" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C440" s="9"/>
-      <c r="D440" s="10"/>
+      <c r="C440" s="6"/>
+      <c r="D440" s="7"/>
       <c r="E440" s="1" t="s">
         <v>395</v>
       </c>
@@ -9661,11 +9658,11 @@
       <c r="A441" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B441" s="8" t="s">
+      <c r="B441" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C441" s="9"/>
-      <c r="D441" s="10"/>
+      <c r="C441" s="6"/>
+      <c r="D441" s="7"/>
       <c r="E441" s="1" t="s">
         <v>227</v>
       </c>
@@ -9677,11 +9674,11 @@
       <c r="A442" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B442" s="8" t="s">
+      <c r="B442" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C442" s="9"/>
-      <c r="D442" s="10"/>
+      <c r="C442" s="6"/>
+      <c r="D442" s="7"/>
       <c r="E442" s="1" t="s">
         <v>218</v>
       </c>
@@ -9693,11 +9690,11 @@
       <c r="A443" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B443" s="8" t="s">
+      <c r="B443" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C443" s="9"/>
-      <c r="D443" s="10"/>
+      <c r="C443" s="6"/>
+      <c r="D443" s="7"/>
       <c r="E443" s="1" t="s">
         <v>242</v>
       </c>
@@ -9709,11 +9706,11 @@
       <c r="A444" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B444" s="8" t="s">
+      <c r="B444" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C444" s="9"/>
-      <c r="D444" s="10"/>
+      <c r="C444" s="6"/>
+      <c r="D444" s="7"/>
       <c r="E444" s="1" t="s">
         <v>154</v>
       </c>
@@ -9725,11 +9722,11 @@
       <c r="A445" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B445" s="8" t="s">
+      <c r="B445" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C445" s="9"/>
-      <c r="D445" s="10"/>
+      <c r="C445" s="6"/>
+      <c r="D445" s="7"/>
       <c r="E445" s="1" t="s">
         <v>222</v>
       </c>
@@ -9741,11 +9738,11 @@
       <c r="A446" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B446" s="8" t="s">
+      <c r="B446" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C446" s="9"/>
-      <c r="D446" s="10"/>
+      <c r="C446" s="6"/>
+      <c r="D446" s="7"/>
       <c r="E446" s="1" t="s">
         <v>264</v>
       </c>
@@ -9757,11 +9754,11 @@
       <c r="A447" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B447" s="8" t="s">
+      <c r="B447" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C447" s="9"/>
-      <c r="D447" s="10"/>
+      <c r="C447" s="6"/>
+      <c r="D447" s="7"/>
       <c r="E447" s="1" t="s">
         <v>205</v>
       </c>
@@ -9773,11 +9770,11 @@
       <c r="A448" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B448" s="8" t="s">
+      <c r="B448" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C448" s="9"/>
-      <c r="D448" s="10"/>
+      <c r="C448" s="6"/>
+      <c r="D448" s="7"/>
       <c r="E448" s="1" t="s">
         <v>355</v>
       </c>
@@ -9789,11 +9786,11 @@
       <c r="A449" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B449" s="8" t="s">
+      <c r="B449" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C449" s="9"/>
-      <c r="D449" s="10"/>
+      <c r="C449" s="6"/>
+      <c r="D449" s="7"/>
       <c r="E449" s="1" t="s">
         <v>190</v>
       </c>
@@ -9805,11 +9802,11 @@
       <c r="A450" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B450" s="8" t="s">
+      <c r="B450" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C450" s="9"/>
-      <c r="D450" s="10"/>
+      <c r="C450" s="6"/>
+      <c r="D450" s="7"/>
       <c r="E450" s="1" t="s">
         <v>278</v>
       </c>
@@ -9821,11 +9818,11 @@
       <c r="A451" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B451" s="8" t="s">
+      <c r="B451" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C451" s="9"/>
-      <c r="D451" s="10"/>
+      <c r="C451" s="6"/>
+      <c r="D451" s="7"/>
       <c r="E451" s="1" t="s">
         <v>269</v>
       </c>
@@ -9837,11 +9834,11 @@
       <c r="A452" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B452" s="8" t="s">
+      <c r="B452" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C452" s="9"/>
-      <c r="D452" s="10"/>
+      <c r="C452" s="6"/>
+      <c r="D452" s="7"/>
       <c r="E452" s="1" t="s">
         <v>182</v>
       </c>
@@ -9853,11 +9850,11 @@
       <c r="A453" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B453" s="8" t="s">
+      <c r="B453" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C453" s="9"/>
-      <c r="D453" s="10"/>
+      <c r="C453" s="6"/>
+      <c r="D453" s="7"/>
       <c r="E453" s="1" t="s">
         <v>417</v>
       </c>
@@ -9869,11 +9866,11 @@
       <c r="A454" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B454" s="8" t="s">
+      <c r="B454" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C454" s="9"/>
-      <c r="D454" s="10"/>
+      <c r="C454" s="6"/>
+      <c r="D454" s="7"/>
       <c r="E454" s="1" t="s">
         <v>345</v>
       </c>
@@ -9885,11 +9882,11 @@
       <c r="A455" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B455" s="8" t="s">
+      <c r="B455" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C455" s="9"/>
-      <c r="D455" s="10"/>
+      <c r="C455" s="6"/>
+      <c r="D455" s="7"/>
       <c r="E455" s="1" t="s">
         <v>10</v>
       </c>
@@ -9901,11 +9898,11 @@
       <c r="A456" s="1" t="s">
         <v>455</v>
       </c>
-      <c r="B456" s="8" t="s">
+      <c r="B456" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="C456" s="9"/>
-      <c r="D456" s="10"/>
+      <c r="C456" s="6"/>
+      <c r="D456" s="7"/>
       <c r="E456" s="1" t="s">
         <v>202</v>
       </c>
@@ -9917,11 +9914,11 @@
       <c r="A457" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B457" s="11" t="s">
+      <c r="B457" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="C457" s="12"/>
-      <c r="D457" s="13"/>
+      <c r="C457" s="9"/>
+      <c r="D457" s="10"/>
       <c r="E457" s="3" t="s">
         <v>7</v>
       </c>
@@ -9933,11 +9930,11 @@
       <c r="A458" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B458" s="8" t="s">
+      <c r="B458" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C458" s="9"/>
-      <c r="D458" s="10"/>
+      <c r="C458" s="6"/>
+      <c r="D458" s="7"/>
       <c r="E458" s="1" t="s">
         <v>459</v>
       </c>
@@ -9949,11 +9946,11 @@
       <c r="A459" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B459" s="8" t="s">
+      <c r="B459" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C459" s="9"/>
-      <c r="D459" s="10"/>
+      <c r="C459" s="6"/>
+      <c r="D459" s="7"/>
       <c r="E459" s="1" t="s">
         <v>460</v>
       </c>
@@ -9965,11 +9962,11 @@
       <c r="A460" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B460" s="8" t="s">
+      <c r="B460" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="C460" s="9"/>
-      <c r="D460" s="10"/>
+      <c r="C460" s="6"/>
+      <c r="D460" s="7"/>
       <c r="E460" s="1" t="s">
         <v>461</v>
       </c>
@@ -9981,11 +9978,11 @@
       <c r="A461" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B461" s="11" t="s">
+      <c r="B461" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="C461" s="12"/>
-      <c r="D461" s="13"/>
+      <c r="C461" s="9"/>
+      <c r="D461" s="10"/>
       <c r="E461" s="3" t="s">
         <v>7</v>
       </c>
@@ -9994,27 +9991,454 @@
       </c>
     </row>
     <row r="462" spans="1:6">
-      <c r="A462" s="23" t="s">
-        <v>462</v>
-      </c>
-      <c r="B462" s="23"/>
-      <c r="C462" s="23"/>
-      <c r="D462" s="23"/>
-      <c r="E462" s="23"/>
+      <c r="A462" s="11"/>
+      <c r="B462" s="11"/>
+      <c r="C462" s="11"/>
+      <c r="D462" s="11"/>
+      <c r="E462" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="463">
-    <mergeCell ref="B456:D456"/>
-    <mergeCell ref="B457:D457"/>
-    <mergeCell ref="B454:D454"/>
-    <mergeCell ref="B455:D455"/>
-    <mergeCell ref="B452:D452"/>
-    <mergeCell ref="B453:D453"/>
-    <mergeCell ref="A462:E462"/>
-    <mergeCell ref="B460:D460"/>
-    <mergeCell ref="B461:D461"/>
-    <mergeCell ref="B458:D458"/>
-    <mergeCell ref="B459:D459"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B84:D84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B90:D90"/>
+    <mergeCell ref="B91:D91"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:D89"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B96:D96"/>
+    <mergeCell ref="B97:D97"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B102:D102"/>
+    <mergeCell ref="B103:D103"/>
+    <mergeCell ref="B100:D100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="B98:D98"/>
+    <mergeCell ref="B99:D99"/>
+    <mergeCell ref="B108:D108"/>
+    <mergeCell ref="B109:D109"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B104:D104"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B112:D112"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B110:D110"/>
+    <mergeCell ref="B111:D111"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B118:D118"/>
+    <mergeCell ref="B119:D119"/>
+    <mergeCell ref="B116:D116"/>
+    <mergeCell ref="B117:D117"/>
+    <mergeCell ref="B126:D126"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B124:D124"/>
+    <mergeCell ref="B125:D125"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B123:D123"/>
+    <mergeCell ref="B132:D132"/>
+    <mergeCell ref="B133:D133"/>
+    <mergeCell ref="B130:D130"/>
+    <mergeCell ref="B131:D131"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B138:D138"/>
+    <mergeCell ref="B139:D139"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B137:D137"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B142:D142"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B140:D140"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="B150:D150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="B148:D148"/>
+    <mergeCell ref="B149:D149"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="B147:D147"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="B157:D157"/>
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B155:D155"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B160:D160"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B158:D158"/>
+    <mergeCell ref="B159:D159"/>
+    <mergeCell ref="B168:D168"/>
+    <mergeCell ref="B169:D169"/>
+    <mergeCell ref="B166:D166"/>
+    <mergeCell ref="B167:D167"/>
+    <mergeCell ref="B164:D164"/>
+    <mergeCell ref="B165:D165"/>
+    <mergeCell ref="B174:D174"/>
+    <mergeCell ref="B175:D175"/>
+    <mergeCell ref="B172:D172"/>
+    <mergeCell ref="B173:D173"/>
+    <mergeCell ref="B170:D170"/>
+    <mergeCell ref="B171:D171"/>
+    <mergeCell ref="B180:D180"/>
+    <mergeCell ref="B181:D181"/>
+    <mergeCell ref="B178:D178"/>
+    <mergeCell ref="B179:D179"/>
+    <mergeCell ref="B176:D176"/>
+    <mergeCell ref="B177:D177"/>
+    <mergeCell ref="B186:D186"/>
+    <mergeCell ref="B187:D187"/>
+    <mergeCell ref="B184:D184"/>
+    <mergeCell ref="B185:D185"/>
+    <mergeCell ref="B182:D182"/>
+    <mergeCell ref="B183:D183"/>
+    <mergeCell ref="B192:D192"/>
+    <mergeCell ref="B193:D193"/>
+    <mergeCell ref="B190:D190"/>
+    <mergeCell ref="B191:D191"/>
+    <mergeCell ref="B188:D188"/>
+    <mergeCell ref="B189:D189"/>
+    <mergeCell ref="B198:D198"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B196:D196"/>
+    <mergeCell ref="B197:D197"/>
+    <mergeCell ref="B194:D194"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B204:D204"/>
+    <mergeCell ref="B205:D205"/>
+    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B200:D200"/>
+    <mergeCell ref="B201:D201"/>
+    <mergeCell ref="B210:D210"/>
+    <mergeCell ref="B211:D211"/>
+    <mergeCell ref="B208:D208"/>
+    <mergeCell ref="B209:D209"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B207:D207"/>
+    <mergeCell ref="B216:D216"/>
+    <mergeCell ref="B217:D217"/>
+    <mergeCell ref="B214:D214"/>
+    <mergeCell ref="B215:D215"/>
+    <mergeCell ref="B212:D212"/>
+    <mergeCell ref="B213:D213"/>
+    <mergeCell ref="B222:D222"/>
+    <mergeCell ref="B223:D223"/>
+    <mergeCell ref="B220:D220"/>
+    <mergeCell ref="B221:D221"/>
+    <mergeCell ref="B218:D218"/>
+    <mergeCell ref="B219:D219"/>
+    <mergeCell ref="B228:D228"/>
+    <mergeCell ref="B229:D229"/>
+    <mergeCell ref="B226:D226"/>
+    <mergeCell ref="B227:D227"/>
+    <mergeCell ref="B224:D224"/>
+    <mergeCell ref="B225:D225"/>
+    <mergeCell ref="B234:D234"/>
+    <mergeCell ref="B235:D235"/>
+    <mergeCell ref="B232:D232"/>
+    <mergeCell ref="B233:D233"/>
+    <mergeCell ref="B230:D230"/>
+    <mergeCell ref="B231:D231"/>
+    <mergeCell ref="B240:D240"/>
+    <mergeCell ref="B241:D241"/>
+    <mergeCell ref="B238:D238"/>
+    <mergeCell ref="B239:D239"/>
+    <mergeCell ref="B236:D236"/>
+    <mergeCell ref="B237:D237"/>
+    <mergeCell ref="B246:D246"/>
+    <mergeCell ref="B247:D247"/>
+    <mergeCell ref="B244:D244"/>
+    <mergeCell ref="B245:D245"/>
+    <mergeCell ref="B242:D242"/>
+    <mergeCell ref="B243:D243"/>
+    <mergeCell ref="B252:D252"/>
+    <mergeCell ref="B253:D253"/>
+    <mergeCell ref="B250:D250"/>
+    <mergeCell ref="B251:D251"/>
+    <mergeCell ref="B248:D248"/>
+    <mergeCell ref="B249:D249"/>
+    <mergeCell ref="B258:D258"/>
+    <mergeCell ref="B259:D259"/>
+    <mergeCell ref="B256:D256"/>
+    <mergeCell ref="B257:D257"/>
+    <mergeCell ref="B254:D254"/>
+    <mergeCell ref="B255:D255"/>
+    <mergeCell ref="B264:D264"/>
+    <mergeCell ref="B265:D265"/>
+    <mergeCell ref="B262:D262"/>
+    <mergeCell ref="B263:D263"/>
+    <mergeCell ref="B260:D260"/>
+    <mergeCell ref="B261:D261"/>
+    <mergeCell ref="B270:D270"/>
+    <mergeCell ref="B271:D271"/>
+    <mergeCell ref="B268:D268"/>
+    <mergeCell ref="B269:D269"/>
+    <mergeCell ref="B266:D266"/>
+    <mergeCell ref="B267:D267"/>
+    <mergeCell ref="B276:D276"/>
+    <mergeCell ref="B277:D277"/>
+    <mergeCell ref="B274:D274"/>
+    <mergeCell ref="B275:D275"/>
+    <mergeCell ref="B272:D272"/>
+    <mergeCell ref="B273:D273"/>
+    <mergeCell ref="B282:D282"/>
+    <mergeCell ref="B283:D283"/>
+    <mergeCell ref="B280:D280"/>
+    <mergeCell ref="B281:D281"/>
+    <mergeCell ref="B278:D278"/>
+    <mergeCell ref="B279:D279"/>
+    <mergeCell ref="B288:D288"/>
+    <mergeCell ref="B289:D289"/>
+    <mergeCell ref="B286:D286"/>
+    <mergeCell ref="B287:D287"/>
+    <mergeCell ref="B284:D284"/>
+    <mergeCell ref="B285:D285"/>
+    <mergeCell ref="B294:D294"/>
+    <mergeCell ref="B295:D295"/>
+    <mergeCell ref="B292:D292"/>
+    <mergeCell ref="B293:D293"/>
+    <mergeCell ref="B290:D290"/>
+    <mergeCell ref="B291:D291"/>
+    <mergeCell ref="B300:D300"/>
+    <mergeCell ref="B301:D301"/>
+    <mergeCell ref="B298:D298"/>
+    <mergeCell ref="B299:D299"/>
+    <mergeCell ref="B296:D296"/>
+    <mergeCell ref="B297:D297"/>
+    <mergeCell ref="B306:D306"/>
+    <mergeCell ref="B307:D307"/>
+    <mergeCell ref="B304:D304"/>
+    <mergeCell ref="B305:D305"/>
+    <mergeCell ref="B302:D302"/>
+    <mergeCell ref="B303:D303"/>
+    <mergeCell ref="B312:D312"/>
+    <mergeCell ref="B313:D313"/>
+    <mergeCell ref="B310:D310"/>
+    <mergeCell ref="B311:D311"/>
+    <mergeCell ref="B308:D308"/>
+    <mergeCell ref="B309:D309"/>
+    <mergeCell ref="B318:D318"/>
+    <mergeCell ref="B319:D319"/>
+    <mergeCell ref="B316:D316"/>
+    <mergeCell ref="B317:D317"/>
+    <mergeCell ref="B314:D314"/>
+    <mergeCell ref="B315:D315"/>
+    <mergeCell ref="B324:D324"/>
+    <mergeCell ref="B325:D325"/>
+    <mergeCell ref="B322:D322"/>
+    <mergeCell ref="B323:D323"/>
+    <mergeCell ref="B320:D320"/>
+    <mergeCell ref="B321:D321"/>
+    <mergeCell ref="B330:D330"/>
+    <mergeCell ref="B331:D331"/>
+    <mergeCell ref="B328:D328"/>
+    <mergeCell ref="B329:D329"/>
+    <mergeCell ref="B326:D326"/>
+    <mergeCell ref="B327:D327"/>
+    <mergeCell ref="B336:D336"/>
+    <mergeCell ref="B337:D337"/>
+    <mergeCell ref="B334:D334"/>
+    <mergeCell ref="B335:D335"/>
+    <mergeCell ref="B332:D332"/>
+    <mergeCell ref="B333:D333"/>
+    <mergeCell ref="B342:D342"/>
+    <mergeCell ref="B343:D343"/>
+    <mergeCell ref="B340:D340"/>
+    <mergeCell ref="B341:D341"/>
+    <mergeCell ref="B338:D338"/>
+    <mergeCell ref="B339:D339"/>
+    <mergeCell ref="B348:D348"/>
+    <mergeCell ref="B349:D349"/>
+    <mergeCell ref="B346:D346"/>
+    <mergeCell ref="B347:D347"/>
+    <mergeCell ref="B344:D344"/>
+    <mergeCell ref="B345:D345"/>
+    <mergeCell ref="B354:D354"/>
+    <mergeCell ref="B355:D355"/>
+    <mergeCell ref="B352:D352"/>
+    <mergeCell ref="B353:D353"/>
+    <mergeCell ref="B350:D350"/>
+    <mergeCell ref="B351:D351"/>
+    <mergeCell ref="B360:D360"/>
+    <mergeCell ref="B361:D361"/>
+    <mergeCell ref="B358:D358"/>
+    <mergeCell ref="B359:D359"/>
+    <mergeCell ref="B356:D356"/>
+    <mergeCell ref="B357:D357"/>
+    <mergeCell ref="B366:D366"/>
+    <mergeCell ref="B367:D367"/>
+    <mergeCell ref="B364:D364"/>
+    <mergeCell ref="B365:D365"/>
+    <mergeCell ref="B362:D362"/>
+    <mergeCell ref="B363:D363"/>
+    <mergeCell ref="B372:D372"/>
+    <mergeCell ref="B373:D373"/>
+    <mergeCell ref="B370:D370"/>
+    <mergeCell ref="B371:D371"/>
+    <mergeCell ref="B368:D368"/>
+    <mergeCell ref="B369:D369"/>
+    <mergeCell ref="B378:D378"/>
+    <mergeCell ref="B379:D379"/>
+    <mergeCell ref="B376:D376"/>
+    <mergeCell ref="B377:D377"/>
+    <mergeCell ref="B374:D374"/>
+    <mergeCell ref="B375:D375"/>
+    <mergeCell ref="B384:D384"/>
+    <mergeCell ref="B385:D385"/>
+    <mergeCell ref="B382:D382"/>
+    <mergeCell ref="B383:D383"/>
+    <mergeCell ref="B380:D380"/>
+    <mergeCell ref="B381:D381"/>
+    <mergeCell ref="B390:D390"/>
+    <mergeCell ref="B391:D391"/>
+    <mergeCell ref="B388:D388"/>
+    <mergeCell ref="B389:D389"/>
+    <mergeCell ref="B386:D386"/>
+    <mergeCell ref="B387:D387"/>
+    <mergeCell ref="B396:D396"/>
+    <mergeCell ref="B397:D397"/>
+    <mergeCell ref="B394:D394"/>
+    <mergeCell ref="B395:D395"/>
+    <mergeCell ref="B392:D392"/>
+    <mergeCell ref="B393:D393"/>
+    <mergeCell ref="B402:D402"/>
+    <mergeCell ref="B403:D403"/>
+    <mergeCell ref="B400:D400"/>
+    <mergeCell ref="B401:D401"/>
+    <mergeCell ref="B398:D398"/>
+    <mergeCell ref="B399:D399"/>
+    <mergeCell ref="B408:D408"/>
+    <mergeCell ref="B409:D409"/>
+    <mergeCell ref="B406:D406"/>
+    <mergeCell ref="B407:D407"/>
+    <mergeCell ref="B404:D404"/>
+    <mergeCell ref="B405:D405"/>
+    <mergeCell ref="B414:D414"/>
+    <mergeCell ref="B415:D415"/>
+    <mergeCell ref="B412:D412"/>
+    <mergeCell ref="B413:D413"/>
+    <mergeCell ref="B410:D410"/>
+    <mergeCell ref="B411:D411"/>
+    <mergeCell ref="B420:D420"/>
+    <mergeCell ref="B421:D421"/>
+    <mergeCell ref="B418:D418"/>
+    <mergeCell ref="B419:D419"/>
+    <mergeCell ref="B416:D416"/>
+    <mergeCell ref="B417:D417"/>
+    <mergeCell ref="B426:D426"/>
+    <mergeCell ref="B427:D427"/>
+    <mergeCell ref="B424:D424"/>
+    <mergeCell ref="B425:D425"/>
+    <mergeCell ref="B422:D422"/>
+    <mergeCell ref="B423:D423"/>
+    <mergeCell ref="B432:D432"/>
+    <mergeCell ref="B433:D433"/>
+    <mergeCell ref="B430:D430"/>
+    <mergeCell ref="B431:D431"/>
+    <mergeCell ref="B428:D428"/>
+    <mergeCell ref="B429:D429"/>
+    <mergeCell ref="B438:D438"/>
+    <mergeCell ref="B439:D439"/>
+    <mergeCell ref="B436:D436"/>
+    <mergeCell ref="B437:D437"/>
+    <mergeCell ref="B434:D434"/>
+    <mergeCell ref="B435:D435"/>
     <mergeCell ref="B444:D444"/>
     <mergeCell ref="B445:D445"/>
     <mergeCell ref="B442:D442"/>
@@ -10027,446 +10451,17 @@
     <mergeCell ref="B449:D449"/>
     <mergeCell ref="B446:D446"/>
     <mergeCell ref="B447:D447"/>
-    <mergeCell ref="B432:D432"/>
-    <mergeCell ref="B433:D433"/>
-    <mergeCell ref="B430:D430"/>
-    <mergeCell ref="B431:D431"/>
-    <mergeCell ref="B428:D428"/>
-    <mergeCell ref="B429:D429"/>
-    <mergeCell ref="B438:D438"/>
-    <mergeCell ref="B439:D439"/>
-    <mergeCell ref="B436:D436"/>
-    <mergeCell ref="B437:D437"/>
-    <mergeCell ref="B434:D434"/>
-    <mergeCell ref="B435:D435"/>
-    <mergeCell ref="B420:D420"/>
-    <mergeCell ref="B421:D421"/>
-    <mergeCell ref="B418:D418"/>
-    <mergeCell ref="B419:D419"/>
-    <mergeCell ref="B416:D416"/>
-    <mergeCell ref="B417:D417"/>
-    <mergeCell ref="B426:D426"/>
-    <mergeCell ref="B427:D427"/>
-    <mergeCell ref="B424:D424"/>
-    <mergeCell ref="B425:D425"/>
-    <mergeCell ref="B422:D422"/>
-    <mergeCell ref="B423:D423"/>
-    <mergeCell ref="B408:D408"/>
-    <mergeCell ref="B409:D409"/>
-    <mergeCell ref="B406:D406"/>
-    <mergeCell ref="B407:D407"/>
-    <mergeCell ref="B404:D404"/>
-    <mergeCell ref="B405:D405"/>
-    <mergeCell ref="B414:D414"/>
-    <mergeCell ref="B415:D415"/>
-    <mergeCell ref="B412:D412"/>
-    <mergeCell ref="B413:D413"/>
-    <mergeCell ref="B410:D410"/>
-    <mergeCell ref="B411:D411"/>
-    <mergeCell ref="B396:D396"/>
-    <mergeCell ref="B397:D397"/>
-    <mergeCell ref="B394:D394"/>
-    <mergeCell ref="B395:D395"/>
-    <mergeCell ref="B392:D392"/>
-    <mergeCell ref="B393:D393"/>
-    <mergeCell ref="B402:D402"/>
-    <mergeCell ref="B403:D403"/>
-    <mergeCell ref="B400:D400"/>
-    <mergeCell ref="B401:D401"/>
-    <mergeCell ref="B398:D398"/>
-    <mergeCell ref="B399:D399"/>
-    <mergeCell ref="B384:D384"/>
-    <mergeCell ref="B385:D385"/>
-    <mergeCell ref="B382:D382"/>
-    <mergeCell ref="B383:D383"/>
-    <mergeCell ref="B380:D380"/>
-    <mergeCell ref="B381:D381"/>
-    <mergeCell ref="B390:D390"/>
-    <mergeCell ref="B391:D391"/>
-    <mergeCell ref="B388:D388"/>
-    <mergeCell ref="B389:D389"/>
-    <mergeCell ref="B386:D386"/>
-    <mergeCell ref="B387:D387"/>
-    <mergeCell ref="B372:D372"/>
-    <mergeCell ref="B373:D373"/>
-    <mergeCell ref="B370:D370"/>
-    <mergeCell ref="B371:D371"/>
-    <mergeCell ref="B368:D368"/>
-    <mergeCell ref="B369:D369"/>
-    <mergeCell ref="B378:D378"/>
-    <mergeCell ref="B379:D379"/>
-    <mergeCell ref="B376:D376"/>
-    <mergeCell ref="B377:D377"/>
-    <mergeCell ref="B374:D374"/>
-    <mergeCell ref="B375:D375"/>
-    <mergeCell ref="B360:D360"/>
-    <mergeCell ref="B361:D361"/>
-    <mergeCell ref="B358:D358"/>
-    <mergeCell ref="B359:D359"/>
-    <mergeCell ref="B356:D356"/>
-    <mergeCell ref="B357:D357"/>
-    <mergeCell ref="B366:D366"/>
-    <mergeCell ref="B367:D367"/>
-    <mergeCell ref="B364:D364"/>
-    <mergeCell ref="B365:D365"/>
-    <mergeCell ref="B362:D362"/>
-    <mergeCell ref="B363:D363"/>
-    <mergeCell ref="B348:D348"/>
-    <mergeCell ref="B349:D349"/>
-    <mergeCell ref="B346:D346"/>
-    <mergeCell ref="B347:D347"/>
-    <mergeCell ref="B344:D344"/>
-    <mergeCell ref="B345:D345"/>
-    <mergeCell ref="B354:D354"/>
-    <mergeCell ref="B355:D355"/>
-    <mergeCell ref="B352:D352"/>
-    <mergeCell ref="B353:D353"/>
-    <mergeCell ref="B350:D350"/>
-    <mergeCell ref="B351:D351"/>
-    <mergeCell ref="B336:D336"/>
-    <mergeCell ref="B337:D337"/>
-    <mergeCell ref="B334:D334"/>
-    <mergeCell ref="B335:D335"/>
-    <mergeCell ref="B332:D332"/>
-    <mergeCell ref="B333:D333"/>
-    <mergeCell ref="B342:D342"/>
-    <mergeCell ref="B343:D343"/>
-    <mergeCell ref="B340:D340"/>
-    <mergeCell ref="B341:D341"/>
-    <mergeCell ref="B338:D338"/>
-    <mergeCell ref="B339:D339"/>
-    <mergeCell ref="B324:D324"/>
-    <mergeCell ref="B325:D325"/>
-    <mergeCell ref="B322:D322"/>
-    <mergeCell ref="B323:D323"/>
-    <mergeCell ref="B320:D320"/>
-    <mergeCell ref="B321:D321"/>
-    <mergeCell ref="B330:D330"/>
-    <mergeCell ref="B331:D331"/>
-    <mergeCell ref="B328:D328"/>
-    <mergeCell ref="B329:D329"/>
-    <mergeCell ref="B326:D326"/>
-    <mergeCell ref="B327:D327"/>
-    <mergeCell ref="B312:D312"/>
-    <mergeCell ref="B313:D313"/>
-    <mergeCell ref="B310:D310"/>
-    <mergeCell ref="B311:D311"/>
-    <mergeCell ref="B308:D308"/>
-    <mergeCell ref="B309:D309"/>
-    <mergeCell ref="B318:D318"/>
-    <mergeCell ref="B319:D319"/>
-    <mergeCell ref="B316:D316"/>
-    <mergeCell ref="B317:D317"/>
-    <mergeCell ref="B314:D314"/>
-    <mergeCell ref="B315:D315"/>
-    <mergeCell ref="B300:D300"/>
-    <mergeCell ref="B301:D301"/>
-    <mergeCell ref="B298:D298"/>
-    <mergeCell ref="B299:D299"/>
-    <mergeCell ref="B296:D296"/>
-    <mergeCell ref="B297:D297"/>
-    <mergeCell ref="B306:D306"/>
-    <mergeCell ref="B307:D307"/>
-    <mergeCell ref="B304:D304"/>
-    <mergeCell ref="B305:D305"/>
-    <mergeCell ref="B302:D302"/>
-    <mergeCell ref="B303:D303"/>
-    <mergeCell ref="B288:D288"/>
-    <mergeCell ref="B289:D289"/>
-    <mergeCell ref="B286:D286"/>
-    <mergeCell ref="B287:D287"/>
-    <mergeCell ref="B284:D284"/>
-    <mergeCell ref="B285:D285"/>
-    <mergeCell ref="B294:D294"/>
-    <mergeCell ref="B295:D295"/>
-    <mergeCell ref="B292:D292"/>
-    <mergeCell ref="B293:D293"/>
-    <mergeCell ref="B290:D290"/>
-    <mergeCell ref="B291:D291"/>
-    <mergeCell ref="B276:D276"/>
-    <mergeCell ref="B277:D277"/>
-    <mergeCell ref="B274:D274"/>
-    <mergeCell ref="B275:D275"/>
-    <mergeCell ref="B272:D272"/>
-    <mergeCell ref="B273:D273"/>
-    <mergeCell ref="B282:D282"/>
-    <mergeCell ref="B283:D283"/>
-    <mergeCell ref="B280:D280"/>
-    <mergeCell ref="B281:D281"/>
-    <mergeCell ref="B278:D278"/>
-    <mergeCell ref="B279:D279"/>
-    <mergeCell ref="B264:D264"/>
-    <mergeCell ref="B265:D265"/>
-    <mergeCell ref="B262:D262"/>
-    <mergeCell ref="B263:D263"/>
-    <mergeCell ref="B260:D260"/>
-    <mergeCell ref="B261:D261"/>
-    <mergeCell ref="B270:D270"/>
-    <mergeCell ref="B271:D271"/>
-    <mergeCell ref="B268:D268"/>
-    <mergeCell ref="B269:D269"/>
-    <mergeCell ref="B266:D266"/>
-    <mergeCell ref="B267:D267"/>
-    <mergeCell ref="B252:D252"/>
-    <mergeCell ref="B253:D253"/>
-    <mergeCell ref="B250:D250"/>
-    <mergeCell ref="B251:D251"/>
-    <mergeCell ref="B248:D248"/>
-    <mergeCell ref="B249:D249"/>
-    <mergeCell ref="B258:D258"/>
-    <mergeCell ref="B259:D259"/>
-    <mergeCell ref="B256:D256"/>
-    <mergeCell ref="B257:D257"/>
-    <mergeCell ref="B254:D254"/>
-    <mergeCell ref="B255:D255"/>
-    <mergeCell ref="B240:D240"/>
-    <mergeCell ref="B241:D241"/>
-    <mergeCell ref="B238:D238"/>
-    <mergeCell ref="B239:D239"/>
-    <mergeCell ref="B236:D236"/>
-    <mergeCell ref="B237:D237"/>
-    <mergeCell ref="B246:D246"/>
-    <mergeCell ref="B247:D247"/>
-    <mergeCell ref="B244:D244"/>
-    <mergeCell ref="B245:D245"/>
-    <mergeCell ref="B242:D242"/>
-    <mergeCell ref="B243:D243"/>
-    <mergeCell ref="B228:D228"/>
-    <mergeCell ref="B229:D229"/>
-    <mergeCell ref="B226:D226"/>
-    <mergeCell ref="B227:D227"/>
-    <mergeCell ref="B224:D224"/>
-    <mergeCell ref="B225:D225"/>
-    <mergeCell ref="B234:D234"/>
-    <mergeCell ref="B235:D235"/>
-    <mergeCell ref="B232:D232"/>
-    <mergeCell ref="B233:D233"/>
-    <mergeCell ref="B230:D230"/>
-    <mergeCell ref="B231:D231"/>
-    <mergeCell ref="B216:D216"/>
-    <mergeCell ref="B217:D217"/>
-    <mergeCell ref="B214:D214"/>
-    <mergeCell ref="B215:D215"/>
-    <mergeCell ref="B212:D212"/>
-    <mergeCell ref="B213:D213"/>
-    <mergeCell ref="B222:D222"/>
-    <mergeCell ref="B223:D223"/>
-    <mergeCell ref="B220:D220"/>
-    <mergeCell ref="B221:D221"/>
-    <mergeCell ref="B218:D218"/>
-    <mergeCell ref="B219:D219"/>
-    <mergeCell ref="B204:D204"/>
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B202:D202"/>
-    <mergeCell ref="B203:D203"/>
-    <mergeCell ref="B200:D200"/>
-    <mergeCell ref="B201:D201"/>
-    <mergeCell ref="B210:D210"/>
-    <mergeCell ref="B211:D211"/>
-    <mergeCell ref="B208:D208"/>
-    <mergeCell ref="B209:D209"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B207:D207"/>
-    <mergeCell ref="B192:D192"/>
-    <mergeCell ref="B193:D193"/>
-    <mergeCell ref="B190:D190"/>
-    <mergeCell ref="B191:D191"/>
-    <mergeCell ref="B188:D188"/>
-    <mergeCell ref="B189:D189"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B196:D196"/>
-    <mergeCell ref="B197:D197"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B180:D180"/>
-    <mergeCell ref="B181:D181"/>
-    <mergeCell ref="B178:D178"/>
-    <mergeCell ref="B179:D179"/>
-    <mergeCell ref="B176:D176"/>
-    <mergeCell ref="B177:D177"/>
-    <mergeCell ref="B186:D186"/>
-    <mergeCell ref="B187:D187"/>
-    <mergeCell ref="B184:D184"/>
-    <mergeCell ref="B185:D185"/>
-    <mergeCell ref="B182:D182"/>
-    <mergeCell ref="B183:D183"/>
-    <mergeCell ref="B168:D168"/>
-    <mergeCell ref="B169:D169"/>
-    <mergeCell ref="B166:D166"/>
-    <mergeCell ref="B167:D167"/>
-    <mergeCell ref="B164:D164"/>
-    <mergeCell ref="B165:D165"/>
-    <mergeCell ref="B174:D174"/>
-    <mergeCell ref="B175:D175"/>
-    <mergeCell ref="B172:D172"/>
-    <mergeCell ref="B173:D173"/>
-    <mergeCell ref="B170:D170"/>
-    <mergeCell ref="B171:D171"/>
-    <mergeCell ref="B156:D156"/>
-    <mergeCell ref="B157:D157"/>
-    <mergeCell ref="B154:D154"/>
-    <mergeCell ref="B155:D155"/>
-    <mergeCell ref="B152:D152"/>
-    <mergeCell ref="B153:D153"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B160:D160"/>
-    <mergeCell ref="B161:D161"/>
-    <mergeCell ref="B158:D158"/>
-    <mergeCell ref="B159:D159"/>
-    <mergeCell ref="B144:D144"/>
-    <mergeCell ref="B145:D145"/>
-    <mergeCell ref="B142:D142"/>
-    <mergeCell ref="B143:D143"/>
-    <mergeCell ref="B140:D140"/>
-    <mergeCell ref="B141:D141"/>
-    <mergeCell ref="B150:D150"/>
-    <mergeCell ref="B151:D151"/>
-    <mergeCell ref="B148:D148"/>
-    <mergeCell ref="B149:D149"/>
-    <mergeCell ref="B146:D146"/>
-    <mergeCell ref="B147:D147"/>
-    <mergeCell ref="B132:D132"/>
-    <mergeCell ref="B133:D133"/>
-    <mergeCell ref="B130:D130"/>
-    <mergeCell ref="B131:D131"/>
-    <mergeCell ref="B128:D128"/>
-    <mergeCell ref="B129:D129"/>
-    <mergeCell ref="B138:D138"/>
-    <mergeCell ref="B139:D139"/>
-    <mergeCell ref="B136:D136"/>
-    <mergeCell ref="B137:D137"/>
-    <mergeCell ref="B134:D134"/>
-    <mergeCell ref="B135:D135"/>
-    <mergeCell ref="B120:D120"/>
-    <mergeCell ref="B121:D121"/>
-    <mergeCell ref="B118:D118"/>
-    <mergeCell ref="B119:D119"/>
-    <mergeCell ref="B116:D116"/>
-    <mergeCell ref="B117:D117"/>
-    <mergeCell ref="B126:D126"/>
-    <mergeCell ref="B127:D127"/>
-    <mergeCell ref="B124:D124"/>
-    <mergeCell ref="B125:D125"/>
-    <mergeCell ref="B122:D122"/>
-    <mergeCell ref="B123:D123"/>
-    <mergeCell ref="B108:D108"/>
-    <mergeCell ref="B109:D109"/>
-    <mergeCell ref="B106:D106"/>
-    <mergeCell ref="B107:D107"/>
-    <mergeCell ref="B104:D104"/>
-    <mergeCell ref="B105:D105"/>
-    <mergeCell ref="B114:D114"/>
-    <mergeCell ref="B115:D115"/>
-    <mergeCell ref="B112:D112"/>
-    <mergeCell ref="B113:D113"/>
-    <mergeCell ref="B110:D110"/>
-    <mergeCell ref="B111:D111"/>
-    <mergeCell ref="B96:D96"/>
-    <mergeCell ref="B97:D97"/>
-    <mergeCell ref="B94:D94"/>
-    <mergeCell ref="B95:D95"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B102:D102"/>
-    <mergeCell ref="B103:D103"/>
-    <mergeCell ref="B100:D100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="B98:D98"/>
-    <mergeCell ref="B99:D99"/>
-    <mergeCell ref="B84:D84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:D83"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B90:D90"/>
-    <mergeCell ref="B91:D91"/>
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:D89"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:D87"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="B75:D75"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B456:D456"/>
+    <mergeCell ref="B457:D457"/>
+    <mergeCell ref="B454:D454"/>
+    <mergeCell ref="B455:D455"/>
+    <mergeCell ref="B452:D452"/>
+    <mergeCell ref="B453:D453"/>
+    <mergeCell ref="A462:E462"/>
+    <mergeCell ref="B460:D460"/>
+    <mergeCell ref="B461:D461"/>
+    <mergeCell ref="B458:D458"/>
+    <mergeCell ref="B459:D459"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.4921259845" footer="0.4921259845"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
